--- a/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
+++ b/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407B9A0F-9191-4F22-9BAC-754C758BFDFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="315" windowWidth="26715" windowHeight="10080"/>
+    <workbookView xWindow="3225" yWindow="795" windowWidth="22635" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -25,17 +26,25 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="356">
   <si>
     <t xml:space="preserve">データベース論理設計
 </t>
@@ -916,13 +925,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×
-－
-×
-－</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ST</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2837,21 +2839,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>－
-－
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-－
-－
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">ワークパッケージを実施する担当チームを示す。
 担当チームは下記3チームを想定する。
 ア： 方式設計やドキュメント標準化といった開発基盤の開発作業を担当するアーキチーム。
@@ -3030,11 +3017,6 @@
     <rPh sb="2" eb="3">
       <t>シルベ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-○</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3289,13 +3271,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>○
-○
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ネットワーク・サーバ配置設計書
 アプリケーションサーバ配置設計書
 サーバ機器（購入済み）</t>
@@ -3441,40 +3416,6 @@
     <rPh sb="7" eb="10">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
-×
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○×</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3628,16 +3569,6 @@
   </si>
   <si>
     <t>×
-○
-○
-○
-○
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
 ×
 －</t>
     <phoneticPr fontId="3"/>
@@ -3654,35 +3585,6 @@
 －
 －
 ×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4338,10 +4240,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">サブシステムインタフェース設計書
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ユーザインタフェース標準
 方式設計書
 サブシステムインタフェース一覧
@@ -4609,16 +4507,141 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+×
+×
+○
+○
+○
+○
+○
+○
+×
+○
+○
+○
+○
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
+×
+×
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+×
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステムインタフェース設計書
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×
+○
+○
+○×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+×
+○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+×
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+－
+×
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シートの「F列」を実態に合わせます。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シート</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5289,6 +5312,87 @@
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5397,86 +5501,11 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5487,15 +5516,18 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5523,15 +5555,6 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5543,23 +5566,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="パーセント 2" xfId="5"/>
+    <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="6"/>
-    <cellStyle name="標準 3 2" xfId="7"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="9"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5582,7 +5608,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5597,7 +5629,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5681,7 +5719,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5781,7 +5825,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5876,7 +5926,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 13"/>
+        <xdr:cNvPr id="2" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5891,7 +5947,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="AutoShape 2"/>
+          <xdr:cNvPr id="3" name="AutoShape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5940,7 +6002,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="AutoShape 3"/>
+          <xdr:cNvPr id="4" name="AutoShape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5992,7 +6060,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="AutoShape 4"/>
+          <xdr:cNvPr id="5" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6044,7 +6118,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="AutoShape 5"/>
+          <xdr:cNvPr id="6" name="AutoShape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6096,7 +6176,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="AutoShape 6"/>
+          <xdr:cNvPr id="7" name="AutoShape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6148,7 +6234,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="AutoShape 7"/>
+          <xdr:cNvPr id="8" name="AutoShape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6200,7 +6292,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="AutoShape 9"/>
+          <xdr:cNvPr id="9" name="AutoShape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6306,7 +6404,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="AutoShape 11"/>
+          <xdr:cNvPr id="10" name="AutoShape 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6363,7 +6467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6405,7 +6509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6438,9 +6542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6473,6 +6594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6648,7 +6786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6656,101 +6794,101 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="6.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="100">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
+        <v>43896</v>
       </c>
       <c r="J25" s="100"/>
       <c r="K25" s="100"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="21"/>
       <c r="G30" s="23"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="21"/>
       <c r="G31" s="23"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="21"/>
       <c r="G32" s="23"/>
       <c r="H32" s="21"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="21"/>
       <c r="H33" s="21"/>
       <c r="J33" s="25"/>
@@ -6760,7 +6898,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="21"/>
       <c r="H34" s="21"/>
       <c r="J34" s="24"/>
@@ -6773,515 +6911,515 @@
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="29"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="28"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
       <c r="S37" s="30"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -7296,176 +7434,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J14" sqref="J14:P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="107" t="s">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>298</v>
       </c>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="134" t="str">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="161" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="101">
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="128">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="103"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="130"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="3"/>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="113" t="str">
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="101" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="128">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="103"/>
+        <v>43896</v>
+      </c>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="103"/>
+    <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="129"/>
+      <c r="AI3" s="130"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -7477,7 +7615,7 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="6"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -7489,1194 +7627,1048 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
     </row>
-    <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="104" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="H7" s="133"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="104" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="104" t="s">
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="133"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="133"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="133"/>
+      <c r="Z7" s="133"/>
+      <c r="AA7" s="133"/>
+      <c r="AB7" s="133"/>
+      <c r="AC7" s="133"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="105"/>
-    </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="133"/>
+      <c r="AI7" s="132"/>
+    </row>
+    <row r="8" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151">
+      <c r="B8" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116">
         <v>43336</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="157" t="s">
-        <v>306</v>
-      </c>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="160" t="s">
-        <v>307</v>
-      </c>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="157" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG8" s="158"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="159"/>
-    </row>
-    <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="124"/>
+    </row>
+    <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="145"/>
-    </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103">
+        <v>43896</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="103" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="106"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="107" t="s">
+        <v>355</v>
+      </c>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="109"/>
+    </row>
+    <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="143"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="145"/>
-    </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
+    </row>
+    <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="143"/>
-      <c r="AG11" s="144"/>
-      <c r="AH11" s="144"/>
-      <c r="AI11" s="145"/>
-    </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="109"/>
+    </row>
+    <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="144"/>
-      <c r="AH12" s="144"/>
-      <c r="AI12" s="145"/>
-    </row>
-    <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="109"/>
+    </row>
+    <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="145"/>
-    </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="109"/>
+    </row>
+    <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="144"/>
-      <c r="AH14" s="144"/>
-      <c r="AI14" s="145"/>
-    </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="109"/>
+    </row>
+    <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="145"/>
-    </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="108"/>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="109"/>
+    </row>
+    <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="145"/>
-    </row>
-    <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="108"/>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="109"/>
+    </row>
+    <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="143"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="145"/>
-    </row>
-    <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="109"/>
+    </row>
+    <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="145"/>
-    </row>
-    <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
+    </row>
+    <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="143"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="145"/>
-    </row>
-    <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="109"/>
+    </row>
+    <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="145"/>
-    </row>
-    <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="109"/>
+    </row>
+    <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="143"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="145"/>
-    </row>
-    <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="109"/>
+    </row>
+    <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="143"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="145"/>
-    </row>
-    <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="109"/>
+    </row>
+    <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="143"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="145"/>
-    </row>
-    <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="108"/>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="109"/>
+    </row>
+    <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="145"/>
-    </row>
-    <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="108"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="109"/>
+    </row>
+    <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="143"/>
-      <c r="AG25" s="144"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="145"/>
-    </row>
-    <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="108"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="109"/>
+    </row>
+    <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="143"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="145"/>
-    </row>
-    <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="109"/>
+    </row>
+    <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="143"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="145"/>
-    </row>
-    <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="109"/>
+    </row>
+    <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="143"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="145"/>
-    </row>
-    <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="109"/>
+    </row>
+    <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="143"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="145"/>
-    </row>
-    <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="108"/>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="109"/>
+    </row>
+    <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="147"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="143"/>
-      <c r="AG30" s="144"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="145"/>
-    </row>
-    <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="112"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="108"/>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="109"/>
+    </row>
+    <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="147"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="143"/>
-      <c r="AG31" s="144"/>
-      <c r="AH31" s="144"/>
-      <c r="AI31" s="145"/>
-    </row>
-    <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="109"/>
+    </row>
+    <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="148"/>
-      <c r="AF32" s="143"/>
-      <c r="AG32" s="144"/>
-      <c r="AH32" s="144"/>
-      <c r="AI32" s="145"/>
-    </row>
-    <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="109"/>
+    </row>
+    <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="143"/>
-      <c r="AG33" s="144"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="145"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="109"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8700,6 +8692,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -8710,7 +8858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8720,7 +8868,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="3.625" style="49" customWidth="1"/>
     <col min="17" max="17" width="3.625" style="69" customWidth="1"/>
@@ -8855,169 +9003,169 @@
     <col min="16163" max="16384" width="3.625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="str">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="125" t="str">
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarchを使用したシステム開発における標準WBS</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="167" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="134" t="str">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="164" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="164">
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="str">
+    <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="167" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="134" t="str">
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="164" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="164" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+        <v>43896</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110" t="str">
+    <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="164" t="str">
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" s="39" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:38" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -9054,7 +9202,7 @@
       <c r="AH4" s="37"/>
       <c r="AI4" s="37"/>
     </row>
-    <row r="5" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -9072,7 +9220,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="40" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
@@ -9093,7 +9241,7 @@
       <c r="AH5" s="37"/>
       <c r="AI5" s="37"/>
     </row>
-    <row r="6" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -9130,10 +9278,10 @@
       <c r="AH6" s="37"/>
       <c r="AI6" s="37"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="37" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -9169,11 +9317,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="37"/>
       <c r="C8" s="42" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9208,11 +9356,11 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
       <c r="B9" s="37"/>
       <c r="C9" s="42" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9246,11 +9394,11 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="41"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="37"/>
       <c r="C10" s="42" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -9284,7 +9432,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -9320,10 +9468,10 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="37" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -9359,7 +9507,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="43"/>
       <c r="C13" s="37"/>
@@ -9396,7 +9544,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="48"/>
       <c r="C14" s="37"/>
@@ -9433,7 +9581,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="53"/>
       <c r="C15" s="37"/>
@@ -9470,7 +9618,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -9507,7 +9655,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -9544,7 +9692,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -9581,7 +9729,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="48"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -9618,7 +9766,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -9655,7 +9803,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="48"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -9691,7 +9839,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="48"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -9728,7 +9876,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="48"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
       <c r="B23" s="53"/>
       <c r="C23" s="43"/>
@@ -9765,7 +9913,7 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="48"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -9802,7 +9950,7 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="48"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
       <c r="B25" s="37"/>
       <c r="C25" s="41"/>
@@ -9839,7 +9987,7 @@
       <c r="AH25" s="47"/>
       <c r="AI25" s="48"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
       <c r="B26" s="37"/>
       <c r="C26" s="41"/>
@@ -9876,7 +10024,7 @@
       <c r="AH26" s="47"/>
       <c r="AI26" s="48"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
       <c r="B27" s="37"/>
       <c r="C27" s="41"/>
@@ -9913,7 +10061,7 @@
       <c r="AH27" s="47"/>
       <c r="AI27" s="48"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
       <c r="B28" s="37"/>
       <c r="C28" s="41"/>
@@ -9950,7 +10098,7 @@
       <c r="AH28" s="47"/>
       <c r="AI28" s="48"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
       <c r="B29" s="37"/>
       <c r="C29" s="41"/>
@@ -9987,7 +10135,7 @@
       <c r="AH29" s="47"/>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -10024,7 +10172,7 @@
       <c r="AH30" s="57"/>
       <c r="AI30" s="58"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
@@ -10061,7 +10209,7 @@
       <c r="AH31" s="57"/>
       <c r="AI31" s="58"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="61"/>
       <c r="C32" s="41"/>
@@ -10098,7 +10246,7 @@
       <c r="AH32" s="57"/>
       <c r="AI32" s="58"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="61"/>
       <c r="C33" s="41"/>
@@ -10135,7 +10283,7 @@
       <c r="AH33" s="57"/>
       <c r="AI33" s="58"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="61"/>
       <c r="C34" s="41"/>
@@ -10172,7 +10320,7 @@
       <c r="AH34" s="57"/>
       <c r="AI34" s="58"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="61"/>
       <c r="C35" s="41"/>
@@ -10209,7 +10357,7 @@
       <c r="AH35" s="57"/>
       <c r="AI35" s="58"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -10246,7 +10394,7 @@
       <c r="AH36" s="66"/>
       <c r="AI36" s="54"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
@@ -10278,7 +10426,7 @@
       <c r="AH37" s="74"/>
       <c r="AI37" s="70"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="70"/>
       <c r="T38" s="70"/>
       <c r="U38" s="71"/>
@@ -10297,7 +10445,7 @@
       <c r="AH38" s="77"/>
       <c r="AI38" s="70"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="78"/>
       <c r="S39" s="70"/>
       <c r="T39" s="71"/>
@@ -10317,7 +10465,7 @@
       <c r="AH39" s="77"/>
       <c r="AI39" s="70"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="70"/>
       <c r="T40" s="70"/>
       <c r="U40" s="70"/>
@@ -10336,7 +10484,7 @@
       <c r="AH40" s="77"/>
       <c r="AI40" s="70"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
@@ -10350,37 +10498,37 @@
       <c r="AH41" s="77"/>
       <c r="AI41" s="70"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="70"/>
       <c r="AF42" s="75"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="77"/>
       <c r="AI42" s="70"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="70"/>
       <c r="AF43" s="75"/>
       <c r="AG43" s="75"/>
       <c r="AH43" s="77"/>
       <c r="AI43" s="70"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="67"/>
       <c r="AF44" s="79"/>
       <c r="AG44" s="79"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="67"/>
       <c r="AG45" s="79"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="79"/>
       <c r="AG46" s="79"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="79"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
       <c r="V48" s="67"/>
@@ -10393,7 +10541,7 @@
       <c r="AC48" s="67"/>
       <c r="AD48" s="67"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="67"/>
       <c r="S49" s="67"/>
       <c r="T49" s="67"/>
@@ -10408,10 +10556,10 @@
       <c r="AD49" s="67"/>
       <c r="AG49" s="79"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="67"/>
     </row>
-    <row r="51" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
@@ -10444,7 +10592,7 @@
       <c r="AD51" s="49"/>
       <c r="AH51" s="78"/>
     </row>
-    <row r="52" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
@@ -10479,6 +10627,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -10488,14 +10644,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10506,7 +10654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10516,7 +10664,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="3.625" style="35" customWidth="1"/>
     <col min="3" max="5" width="3.625" style="84" customWidth="1"/>
@@ -10533,60 +10681,60 @@
     <col min="32" max="16384" width="3.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110" t="str">
+    <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="170" t="s">
-        <v>312</v>
-      </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="125" t="str">
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="173" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="152" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarchを使用したシステム開発における標準WBS</v>
       </c>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="134" t="str">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="164">
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="43"/>
       <c r="AN1" s="80"/>
       <c r="AO1" s="43"/>
@@ -10599,55 +10747,55 @@
       <c r="AV1" s="43"/>
       <c r="AW1" s="43"/>
     </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110" t="str">
+    <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="107" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="134" t="str">
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="164" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+        <v>43896</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="43"/>
       <c r="AN2" s="80"/>
       <c r="AO2" s="43"/>
@@ -10660,53 +10808,53 @@
       <c r="AV2" s="43"/>
       <c r="AW2" s="43"/>
     </row>
-    <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110" t="str">
+    <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="161" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="164" t="str">
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="162"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="82"/>
       <c r="AK3" s="83"/>
       <c r="AL3" s="83"/>
@@ -10722,7 +10870,7 @@
       <c r="AV3" s="81"/>
       <c r="AW3" s="81"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1">
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="37"/>
@@ -10774,10 +10922,10 @@
       <c r="AW4" s="41"/>
       <c r="AX4" s="41"/>
     </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1">
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -10828,261 +10976,261 @@
       <c r="AW5" s="41"/>
       <c r="AX5" s="41"/>
     </row>
-    <row r="6" spans="1:50" ht="12" customHeight="1">
+    <row r="6" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="12" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:50" ht="12" customHeight="1">
+    <row r="8" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="42"/>
       <c r="D8" s="85" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="12" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="42"/>
       <c r="D9" s="85" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="12" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="42"/>
       <c r="D10" s="85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="12" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="42"/>
       <c r="D11" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="12" customHeight="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="42"/>
       <c r="D12" s="85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="12" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="42"/>
       <c r="D13" s="85"/>
     </row>
-    <row r="14" spans="1:50" ht="12" customHeight="1">
+    <row r="14" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="42"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:50" ht="12" customHeight="1">
+    <row r="15" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="42" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" ht="12" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="3:4" ht="12" customHeight="1">
+    <row r="17" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="D17" s="84" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="12" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="3:4" ht="12" customHeight="1">
+    <row r="19" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="42"/>
     </row>
-    <row r="20" spans="3:4" ht="12" customHeight="1">
+    <row r="20" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="42"/>
     </row>
-    <row r="21" spans="3:4" ht="12" customHeight="1">
+    <row r="21" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="3:4" ht="12" customHeight="1">
+    <row r="22" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="3:4" ht="12" customHeight="1">
+    <row r="23" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:4" ht="12" customHeight="1">
+    <row r="24" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:4" ht="12" customHeight="1">
+    <row r="25" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:4" ht="12" customHeight="1">
+    <row r="26" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:4" ht="12" customHeight="1">
+    <row r="27" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:4" ht="12" customHeight="1">
+    <row r="28" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:4" ht="12" customHeight="1">
+    <row r="29" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:4" ht="12" customHeight="1">
+    <row r="30" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:4" ht="12" customHeight="1">
+    <row r="31" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="3:4" ht="12" customHeight="1">
+    <row r="32" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:4" ht="12" customHeight="1">
+    <row r="33" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:4" ht="12" customHeight="1">
+    <row r="34" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:4" ht="12" customHeight="1">
+    <row r="35" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:4" ht="12" customHeight="1">
+    <row r="36" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="42"/>
     </row>
-    <row r="37" spans="3:4" ht="12" customHeight="1">
+    <row r="37" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="42"/>
     </row>
-    <row r="38" spans="3:4" ht="12" customHeight="1">
+    <row r="38" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="3:4" ht="12" customHeight="1">
+    <row r="39" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="3:4" ht="12" customHeight="1">
+    <row r="40" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="42"/>
       <c r="D40" s="85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" ht="12" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="42"/>
       <c r="D41" s="85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="12" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="42"/>
       <c r="D42" s="85"/>
     </row>
-    <row r="43" spans="3:4" ht="12" customHeight="1">
+    <row r="43" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="42"/>
       <c r="D43" s="85" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="12" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="42"/>
       <c r="D44" s="85" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="12" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="42"/>
       <c r="D45" s="85"/>
     </row>
-    <row r="46" spans="3:4" ht="12" customHeight="1">
+    <row r="46" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="42"/>
       <c r="D46" s="85" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="12" customHeight="1">
+    <row r="47" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="42"/>
       <c r="D47" s="85" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="12" customHeight="1">
+    <row r="48" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="42"/>
       <c r="D48" s="85"/>
     </row>
-    <row r="49" spans="3:28" ht="12" customHeight="1">
+    <row r="49" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="42"/>
       <c r="D49" s="85"/>
     </row>
-    <row r="50" spans="3:28" ht="12" customHeight="1">
+    <row r="50" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="3:28" ht="12" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="42"/>
     </row>
-    <row r="52" spans="3:28" ht="12" customHeight="1">
+    <row r="52" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="42"/>
       <c r="D52" s="85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" ht="12" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="42"/>
       <c r="D53" s="86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="3:28" ht="12" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="42"/>
       <c r="D54" s="85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" ht="12" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="42"/>
       <c r="D55" s="85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="3:28" ht="12" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="42"/>
       <c r="D56" s="85"/>
     </row>
-    <row r="57" spans="3:28" ht="12" customHeight="1">
+    <row r="57" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="42"/>
       <c r="D57" s="85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C58" s="42"/>
       <c r="D58" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="E58" s="179" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="180"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="181"/>
-      <c r="K58" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
-      <c r="N58" s="180"/>
-      <c r="O58" s="180"/>
-      <c r="P58" s="180"/>
-      <c r="Q58" s="180"/>
-      <c r="R58" s="180"/>
-      <c r="S58" s="180"/>
-      <c r="T58" s="180"/>
-      <c r="U58" s="180"/>
-      <c r="V58" s="180"/>
-      <c r="W58" s="180"/>
-      <c r="X58" s="180"/>
-      <c r="Y58" s="180"/>
-      <c r="Z58" s="180"/>
-      <c r="AA58" s="180"/>
-      <c r="AB58" s="181"/>
-    </row>
-    <row r="59" spans="3:28" ht="12" customHeight="1">
+        <v>312</v>
+      </c>
+      <c r="E58" s="170" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="172"/>
+      <c r="K58" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="171"/>
+      <c r="R58" s="171"/>
+      <c r="S58" s="171"/>
+      <c r="T58" s="171"/>
+      <c r="U58" s="171"/>
+      <c r="V58" s="171"/>
+      <c r="W58" s="171"/>
+      <c r="X58" s="171"/>
+      <c r="Y58" s="171"/>
+      <c r="Z58" s="171"/>
+      <c r="AA58" s="171"/>
+      <c r="AB58" s="172"/>
+    </row>
+    <row r="59" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="42"/>
       <c r="D59" s="88">
         <v>1</v>
@@ -11116,7 +11264,7 @@
       <c r="AA59" s="169"/>
       <c r="AB59" s="169"/>
     </row>
-    <row r="60" spans="3:28" ht="48" customHeight="1">
+    <row r="60" spans="3:28" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="42"/>
       <c r="D60" s="88">
         <v>2</v>
@@ -11150,13 +11298,13 @@
       <c r="AA60" s="169"/>
       <c r="AB60" s="169"/>
     </row>
-    <row r="61" spans="3:28" ht="15" customHeight="1">
+    <row r="61" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="42"/>
       <c r="D61" s="88">
         <v>3</v>
       </c>
       <c r="E61" s="169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F61" s="169"/>
       <c r="G61" s="169"/>
@@ -11164,7 +11312,7 @@
       <c r="I61" s="169"/>
       <c r="J61" s="169"/>
       <c r="K61" s="169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L61" s="169"/>
       <c r="M61" s="169"/>
@@ -11184,13 +11332,13 @@
       <c r="AA61" s="169"/>
       <c r="AB61" s="169"/>
     </row>
-    <row r="62" spans="3:28" ht="26.25" customHeight="1">
+    <row r="62" spans="3:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="42"/>
       <c r="D62" s="88">
         <v>4</v>
       </c>
       <c r="E62" s="169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" s="169"/>
       <c r="G62" s="169"/>
@@ -11218,13 +11366,13 @@
       <c r="AA62" s="169"/>
       <c r="AB62" s="169"/>
     </row>
-    <row r="63" spans="3:28" ht="16.5" customHeight="1">
+    <row r="63" spans="3:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="42"/>
       <c r="D63" s="88">
         <v>5</v>
       </c>
       <c r="E63" s="169" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F63" s="169"/>
       <c r="G63" s="169"/>
@@ -11252,13 +11400,13 @@
       <c r="AA63" s="169"/>
       <c r="AB63" s="169"/>
     </row>
-    <row r="64" spans="3:28" ht="72" customHeight="1">
+    <row r="64" spans="3:28" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="42"/>
       <c r="D64" s="88">
         <v>6</v>
       </c>
       <c r="E64" s="169" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F64" s="169"/>
       <c r="G64" s="169"/>
@@ -11266,7 +11414,7 @@
       <c r="I64" s="169"/>
       <c r="J64" s="169"/>
       <c r="K64" s="169" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L64" s="169"/>
       <c r="M64" s="169"/>
@@ -11286,13 +11434,13 @@
       <c r="AA64" s="169"/>
       <c r="AB64" s="169"/>
     </row>
-    <row r="65" spans="3:28" ht="14.25" customHeight="1">
+    <row r="65" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="42"/>
       <c r="D65" s="88">
         <v>7</v>
       </c>
       <c r="E65" s="169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F65" s="169"/>
       <c r="G65" s="169"/>
@@ -11300,7 +11448,7 @@
       <c r="I65" s="169"/>
       <c r="J65" s="169"/>
       <c r="K65" s="169" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L65" s="169"/>
       <c r="M65" s="169"/>
@@ -11320,13 +11468,13 @@
       <c r="AA65" s="169"/>
       <c r="AB65" s="169"/>
     </row>
-    <row r="66" spans="3:28" ht="108" customHeight="1">
+    <row r="66" spans="3:28" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="42"/>
       <c r="D66" s="88">
         <v>8</v>
       </c>
       <c r="E66" s="169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F66" s="169"/>
       <c r="G66" s="169"/>
@@ -11334,7 +11482,7 @@
       <c r="I66" s="169"/>
       <c r="J66" s="169"/>
       <c r="K66" s="169" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L66" s="169"/>
       <c r="M66" s="169"/>
@@ -11354,13 +11502,13 @@
       <c r="AA66" s="169"/>
       <c r="AB66" s="169"/>
     </row>
-    <row r="67" spans="3:28" ht="55.5" customHeight="1">
+    <row r="67" spans="3:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="42"/>
       <c r="D67" s="88">
         <v>9</v>
       </c>
       <c r="E67" s="169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="169"/>
       <c r="G67" s="169"/>
@@ -11388,35 +11536,14 @@
       <c r="AA67" s="169"/>
       <c r="AB67" s="169"/>
     </row>
-    <row r="68" spans="3:28" ht="12" customHeight="1">
+    <row r="68" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="42"/>
     </row>
-    <row r="69" spans="3:28" ht="12" customHeight="1">
+    <row r="69" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:AB67"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:AB64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:AB65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="K66:AB66"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:AB61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="K62:AB62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:AB63"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="K58:AB58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:AB59"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="E60:J60"/>
     <mergeCell ref="K60:AB60"/>
     <mergeCell ref="AG1:AI1"/>
@@ -11433,6 +11560,27 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="K58:AB58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:AB59"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:AB61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="K62:AB62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:AB63"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:AB67"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:AB64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:AB65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="K66:AB66"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -11449,7 +11597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11457,10 +11605,10 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="11" customWidth="1"/>
@@ -11475,7 +11623,7 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>34</v>
       </c>
@@ -11486,27 +11634,27 @@
         <v>44</v>
       </c>
       <c r="D1" s="182" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="182" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" s="182" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G1" s="182" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H1" s="182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="182"/>
       <c r="J1" s="182"/>
       <c r="K1" s="182" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="182"/>
       <c r="B2" s="182"/>
       <c r="C2" s="183"/>
@@ -11515,17 +11663,17 @@
       <c r="F2" s="182"/>
       <c r="G2" s="184"/>
       <c r="H2" s="99" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I2" s="99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K2" s="182"/>
     </row>
-    <row r="3" spans="1:11" ht="101.25">
+    <row r="3" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A3" s="89" t="s">
         <v>31</v>
       </c>
@@ -11533,32 +11681,32 @@
         <v>45</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G3" s="91"/>
       <c r="H3" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="191.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
@@ -11569,7 +11717,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>41</v>
@@ -11579,52 +11727,52 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="97" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="91" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33.75">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A6" s="89" t="s">
         <v>31</v>
       </c>
@@ -11635,62 +11783,62 @@
         <v>39</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="1:11" ht="157.5">
+    <row r="7" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A7" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="93" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="56.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A8" s="89" t="s">
         <v>31</v>
       </c>
@@ -11698,69 +11846,69 @@
         <v>25</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="93" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K8" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="372.75" customHeight="1">
+    <row r="9" spans="1:11" ht="372.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="93" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K9" s="91" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="89" t="s">
         <v>31</v>
       </c>
@@ -11768,32 +11916,32 @@
         <v>42</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>218</v>
+        <v>341</v>
       </c>
       <c r="G10" s="89" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="1:11" ht="315">
+    <row r="11" spans="1:11" ht="315" x14ac:dyDescent="0.15">
       <c r="A11" s="89" t="s">
         <v>31</v>
       </c>
@@ -11801,32 +11949,32 @@
         <v>36</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K11" s="91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63.75" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89" t="s">
         <v>31</v>
       </c>
@@ -11834,94 +11982,94 @@
         <v>36</v>
       </c>
       <c r="C12" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="89" t="s">
-        <v>169</v>
-      </c>
       <c r="E12" s="89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="91"/>
     </row>
-    <row r="14" spans="1:11" ht="67.5">
+    <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="97" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="91"/>
     </row>
-    <row r="15" spans="1:11" ht="101.25">
+    <row r="15" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A15" s="89" t="s">
         <v>32</v>
       </c>
@@ -11929,162 +12077,162 @@
         <v>40</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="91" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K15" s="91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="78.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A16" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K16" s="91"/>
     </row>
-    <row r="17" spans="1:11" ht="146.25">
+    <row r="17" spans="1:11" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A17" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K17" s="91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="157.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E18" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="157.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A19" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="90">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A20" s="89" t="s">
         <v>32</v>
       </c>
@@ -12095,27 +12243,27 @@
         <v>1</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" s="91"/>
     </row>
-    <row r="21" spans="1:11" ht="123.75">
+    <row r="21" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A21" s="89" t="s">
         <v>32</v>
       </c>
@@ -12123,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="91" t="s">
         <v>10</v>
@@ -12132,72 +12280,72 @@
         <v>53</v>
       </c>
       <c r="F21" s="90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" s="91"/>
     </row>
-    <row r="22" spans="1:11" ht="270.75" customHeight="1">
+    <row r="22" spans="1:11" ht="270.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>344</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="J22" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="K22" s="91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="123.75">
+    </row>
+    <row r="23" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A23" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="89" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="93" t="s">
         <v>55</v>
@@ -12206,30 +12354,30 @@
         <v>56</v>
       </c>
       <c r="H23" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I23" s="94" t="s">
         <v>57</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="78.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A24" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>58</v>
@@ -12241,24 +12389,24 @@
         <v>60</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I24" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K24" s="91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="56.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A25" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="97" t="s">
         <v>26</v>
@@ -12267,7 +12415,7 @@
         <v>61</v>
       </c>
       <c r="E25" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="95" t="s">
         <v>62</v>
@@ -12276,87 +12424,87 @@
         <v>63</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" s="91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G26" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" s="91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="90">
+    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A27" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J27" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" s="91"/>
     </row>
-    <row r="28" spans="1:11" ht="281.25">
+    <row r="28" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A28" s="89" t="s">
         <v>64</v>
       </c>
@@ -12364,170 +12512,170 @@
         <v>3</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="91" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="281.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A29" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="91"/>
     </row>
-    <row r="30" spans="1:11" ht="270">
+    <row r="30" spans="1:11" ht="270" x14ac:dyDescent="0.15">
       <c r="A30" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="91"/>
     </row>
-    <row r="31" spans="1:11" ht="78.75">
+    <row r="31" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A31" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F31" s="90" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" s="91"/>
     </row>
-    <row r="32" spans="1:11" ht="56.25">
+    <row r="32" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A32" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="90" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I32" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K32" s="91"/>
     </row>
-    <row r="33" spans="1:11" ht="33.75">
+    <row r="33" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A33" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="91" t="s">
         <v>67</v>
@@ -12536,94 +12684,94 @@
         <v>12</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K33" s="91" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="135">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="91"/>
       <c r="H34" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="112.5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A35" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E35" s="89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G35" s="89"/>
       <c r="H35" s="98" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K35" s="91"/>
     </row>
-    <row r="36" spans="1:11" ht="112.5">
+    <row r="36" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A36" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C36" s="97" t="s">
         <v>35</v>
@@ -12632,63 +12780,63 @@
         <v>68</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I36" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J36" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K36" s="91"/>
     </row>
-    <row r="37" spans="1:11" ht="123.75">
+    <row r="37" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A37" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F37" s="90" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I37" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K37" s="91"/>
     </row>
-    <row r="38" spans="1:11" ht="33.75">
+    <row r="38" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A38" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="91" t="s">
         <v>67</v>
@@ -12697,66 +12845,66 @@
         <v>12</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K38" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="135">
+    <row r="39" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A39" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="91"/>
       <c r="H39" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K39" s="89" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>126</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>127</v>
       </c>
       <c r="D40" s="91" t="s">
         <v>23</v>
@@ -12765,172 +12913,172 @@
         <v>24</v>
       </c>
       <c r="F40" s="90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I40" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="91"/>
     </row>
-    <row r="41" spans="1:11" ht="33.75">
+    <row r="41" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="89" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K41" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="146.25">
+    <row r="42" spans="1:11" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A42" s="89" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="91"/>
       <c r="H42" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K42" s="89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="56.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A43" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="91" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="89" t="s">
         <v>77</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>78</v>
       </c>
       <c r="F43" s="93" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="89"/>
       <c r="H43" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K43" s="91" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="90">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="89" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G44" s="89"/>
       <c r="H44" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="135">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A45" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E45" s="89" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G45" s="89"/>
       <c r="H45" s="94" t="s">
@@ -12940,147 +13088,147 @@
         <v>54</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K45" s="89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="135">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A46" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" s="89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K46" s="89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="168.75">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A47" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D47" s="89" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E47" s="89" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F47" s="95" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G47" s="89"/>
       <c r="H47" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K47" s="89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="90">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="89"/>
       <c r="H48" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I48" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="78.75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E49" s="89" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G49" s="89"/>
       <c r="H49" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I49" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K49" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>

--- a/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
+++ b/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407B9A0F-9191-4F22-9BAC-754C758BFDFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C257DB7-E900-40E7-9822-7B06320EEB33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="795" windowWidth="22635" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="358">
   <si>
     <t xml:space="preserve">データベース論理設計
 </t>
@@ -788,11 +788,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>サブシステム一覧
-システム機能一覧</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1906,49 +1901,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchが標準で提供するドキュメント規約と設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchが標準で提供するコーディング規約をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ム</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3261,13 +3213,6 @@
     <rPh sb="149" eb="150">
       <t>スス</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Javaコーディング規約
-JSPコーディング規約
-SQLコーディング規約
-JavaScriptコーディング規約</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4020,18 +3965,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステムインタフェース一覧</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>サブシステム分割
 非機能要件定義
 外部インタフェース設計</t>
@@ -4141,35 +4074,6 @@
       <t>ヒョウジュン</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ドキュメント規約
-システム機能一覧
-システム処理フロー
-システム機能設計書(画面処理用)
-システム機能設計書(バッチ処理用)
-システム機能設計書(メッセージ処理用)
-画面遷移図
-画面一覧
-リクエスト一覧
-外部インタフェース一覧
-外部インタフェース設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-メール設計書
-メッセージ設計書
-ネット・ジョブフロー
-ドメイン定義書
-テーブル定義書
-テーブル一覧
-排他制御単位定義書
-コード設計書
-採番一覧
-共通コンポーネント一覧
-共通コンポーネント設計書
-単体テスト仕様書(共通コンポーネント)
-単体テスト仕様書(リクエスト・取引単体)
-</t>
   </si>
   <si>
     <t>外部インタフェース設計</t>
@@ -4515,6 +4419,115 @@
 ○
 ○
 ○
+×
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×
+○
+○
+○×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+－
+×
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム一覧
+(システム機能一覧のフォーマットを使用)
+システム機能一覧</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ドキュメント規約
+システム機能一覧
+システム処理フロー
+システム機能設計書(画面処理用)
+システム機能設計書(バッチ処理用)
+システム機能設計書(メッセージ処理用)
+画面遷移図
+画面一覧
+リクエスト一覧
+外部インタフェース一覧
+外部インタフェース設計書
+サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)
+サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+メール設計書
+メッセージ設計書
+ネット・ジョブフロー
+ドメイン定義書
+テーブル定義書
+テーブル一覧
+排他制御単位定義書
+コード設計書
+採番一覧
+共通コンポーネント一覧
+共通コンポーネント設計書
+単体テスト仕様書(共通コンポーネント)
+単体テスト仕様書(リクエスト・取引単体)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
 ○
 ○
 ○
@@ -4522,8 +4535,11 @@
 ○
 ○
 ○
-×
-×
+○
+○
+○
+○
+○
 ○
 ○
 ○
@@ -4540,96 +4556,109 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×
-×
-×
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
+    <t>020_アプリケーション開発標準/010_設計標準/に存在する設計ドキュメントをプロジェクト向けにカスタマイズする。</t>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchが標準で提供する設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchスタイルガイド(https://github.com/nablarch-development-standards/nablarch-style-guide)に存在するコーディング規約をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="88" eb="90">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Javaコーディング規約
+JSPコーディング規約
+SQLコーディング規約
+JavaScriptコーディング規約
+シェルスクリプトスタイルガイド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇
+〇
+〇
+〇
+〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
 ○
 ○
 ○
-×
 ○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
 ○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">サブシステムインタフェース設計書
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-×
-○
-○
-○×</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>○
 ○
 ○
-×
+○
 ○
 ○
 ×</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>○
-○
-○
-×
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">－
-－
-○
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">－
-－
-－
-○
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-－
-×
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「2. WBS」シートの「F列」を実態に合わせます。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「2. WBS」シート</t>
+    <t>「2. WBS」シートの「F列」が実態と乖離していたため修正。</t>
+    <rPh sb="17" eb="19">
+      <t>ジッタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5312,6 +5341,114 @@
     <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5348,158 +5485,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5507,18 +5545,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5527,33 +5583,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6834,7 +6863,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7441,7 +7470,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:P14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7450,55 +7479,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="134" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
-        <v>298</v>
-      </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="161" t="str">
+      <c r="A1" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="125" t="s">
+        <v>294</v>
+      </c>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="128">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="101">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="130"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="103"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
@@ -7506,51 +7535,51 @@
       <c r="AN1" s="3"/>
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="140" t="str">
+      <c r="A2" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="113" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="128">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="101">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="130"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="103"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -7558,43 +7587,43 @@
       <c r="AN2" s="2"/>
     </row>
     <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="130"/>
+      <c r="A3" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="103"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -7603,7 +7632,7 @@
     </row>
     <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -7629,1046 +7658,1202 @@
     </row>
     <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="106"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="131" t="s">
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="131" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="131" t="s">
-        <v>292</v>
-      </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="131" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="132"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="105"/>
     </row>
     <row r="8" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151">
+        <v>43336</v>
+      </c>
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="157" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160" t="s">
+        <v>292</v>
+      </c>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="161"/>
+      <c r="X8" s="161"/>
+      <c r="Y8" s="161"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="161"/>
+      <c r="AB8" s="161"/>
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="161"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="157" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116">
-        <v>43336</v>
-      </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122" t="s">
-        <v>295</v>
-      </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="127"/>
-      <c r="AF8" s="122" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="124"/>
+      <c r="AG8" s="158"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="159"/>
     </row>
     <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103">
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139">
         <v>43896</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="107" t="s">
-        <v>355</v>
-      </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110" t="s">
-        <v>354</v>
-      </c>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="109"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="142"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="143" t="s">
+        <v>342</v>
+      </c>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9" s="147"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="147"/>
+      <c r="AB9" s="147"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="145"/>
     </row>
     <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="147"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="147"/>
+      <c r="AB10" s="147"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="147"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="145"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="109"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="143"/>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="144"/>
+      <c r="AI11" s="145"/>
     </row>
     <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="109"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="147"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="144"/>
+      <c r="AI12" s="145"/>
     </row>
     <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="109"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="145"/>
     </row>
     <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="109"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="144"/>
+      <c r="AI14" s="145"/>
     </row>
     <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="108"/>
-      <c r="AH15" s="108"/>
-      <c r="AI15" s="109"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="145"/>
     </row>
     <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="108"/>
-      <c r="AI16" s="109"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="148"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="145"/>
     </row>
     <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="109"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="145"/>
     </row>
     <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="108"/>
-      <c r="AH18" s="108"/>
-      <c r="AI18" s="109"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="145"/>
     </row>
     <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="108"/>
-      <c r="AH19" s="108"/>
-      <c r="AI19" s="109"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="148"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="145"/>
     </row>
     <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="108"/>
-      <c r="AH20" s="108"/>
-      <c r="AI20" s="109"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="148"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="144"/>
+      <c r="AI20" s="145"/>
     </row>
     <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="111"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="108"/>
-      <c r="AH21" s="108"/>
-      <c r="AI21" s="109"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="145"/>
     </row>
     <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="109"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="145"/>
     </row>
     <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="111"/>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="108"/>
-      <c r="AI23" s="109"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="145"/>
     </row>
     <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="111"/>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="108"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="109"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AI24" s="145"/>
     </row>
     <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="108"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="109"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="148"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="145"/>
     </row>
     <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="111"/>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="111"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="109"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="148"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="145"/>
     </row>
     <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="111"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="108"/>
-      <c r="AH27" s="108"/>
-      <c r="AI27" s="109"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="148"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="145"/>
     </row>
     <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="109"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="145"/>
     </row>
     <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="108"/>
-      <c r="AH29" s="108"/>
-      <c r="AI29" s="109"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="143"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="144"/>
+      <c r="AI29" s="145"/>
     </row>
     <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="108"/>
-      <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="145"/>
     </row>
     <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="109"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="144"/>
+      <c r="AI31" s="145"/>
     </row>
     <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="109"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="144"/>
+      <c r="AI32" s="145"/>
     </row>
     <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="109"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="145"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8692,162 +8877,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -9004,163 +9033,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137" t="str">
+      <c r="A1" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="str">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarchを使用したシステム開発における標準WBS</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="164" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="161" t="str">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="166">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="168"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137" t="str">
+      <c r="A2" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="164" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="161" t="str">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="166">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="168"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137" t="str">
+      <c r="A3" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="166" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="168"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -9220,7 +9249,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="40" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
@@ -9281,7 +9310,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -9321,7 +9350,7 @@
       <c r="A8" s="41"/>
       <c r="B8" s="37"/>
       <c r="C8" s="42" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9360,7 +9389,7 @@
       <c r="A9" s="41"/>
       <c r="B9" s="37"/>
       <c r="C9" s="42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9398,7 +9427,7 @@
       <c r="A10" s="41"/>
       <c r="B10" s="37"/>
       <c r="C10" s="42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -9471,7 +9500,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -10627,14 +10656,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -10644,6 +10665,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -10682,59 +10711,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="137" t="str">
+      <c r="A1" s="107" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="173" t="s">
-        <v>301</v>
-      </c>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="152" t="str">
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="170" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>Nablarchを使用したシステム開発における標準WBS</v>
       </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="161" t="str">
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="166">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="168"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="43"/>
       <c r="AN1" s="80"/>
       <c r="AO1" s="43"/>
@@ -10748,54 +10777,54 @@
       <c r="AW1" s="43"/>
     </row>
     <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137" t="str">
+      <c r="A2" s="107" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="161" t="str">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="166">
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="168"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="43"/>
       <c r="AN2" s="80"/>
       <c r="AO2" s="43"/>
@@ -10809,52 +10838,52 @@
       <c r="AW2" s="43"/>
     </row>
     <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137" t="str">
+      <c r="A3" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="161" t="str">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="166" t="str">
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="164" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="167"/>
-      <c r="AI3" s="168"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="82"/>
       <c r="AK3" s="83"/>
       <c r="AL3" s="83"/>
@@ -10925,7 +10954,7 @@
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -10978,7 +11007,7 @@
     </row>
     <row r="6" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="42" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10987,31 +11016,31 @@
     <row r="8" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="42"/>
       <c r="D8" s="85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="42"/>
       <c r="D9" s="85" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="42"/>
       <c r="D10" s="85" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="42"/>
       <c r="D11" s="85" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="42"/>
       <c r="D12" s="85" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11024,7 +11053,7 @@
     </row>
     <row r="15" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11033,7 +11062,7 @@
     <row r="17" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="D17" s="84" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11105,13 +11134,13 @@
     <row r="40" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="42"/>
       <c r="D40" s="85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="42"/>
       <c r="D41" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11121,13 +11150,13 @@
     <row r="43" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="42"/>
       <c r="D43" s="85" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="42"/>
       <c r="D44" s="85" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11156,7 +11185,7 @@
     </row>
     <row r="50" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11165,25 +11194,25 @@
     <row r="52" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="42"/>
       <c r="D52" s="85" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="42"/>
       <c r="D53" s="86" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="42"/>
       <c r="D54" s="85" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="42"/>
       <c r="D55" s="85" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11193,42 +11222,42 @@
     <row r="57" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="42"/>
       <c r="D57" s="85" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C58" s="42"/>
       <c r="D58" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="E58" s="170" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" s="171"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="171"/>
-      <c r="O58" s="171"/>
-      <c r="P58" s="171"/>
-      <c r="Q58" s="171"/>
-      <c r="R58" s="171"/>
-      <c r="S58" s="171"/>
-      <c r="T58" s="171"/>
-      <c r="U58" s="171"/>
-      <c r="V58" s="171"/>
-      <c r="W58" s="171"/>
-      <c r="X58" s="171"/>
-      <c r="Y58" s="171"/>
-      <c r="Z58" s="171"/>
-      <c r="AA58" s="171"/>
-      <c r="AB58" s="172"/>
+        <v>308</v>
+      </c>
+      <c r="E58" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="179" t="s">
+        <v>178</v>
+      </c>
+      <c r="L58" s="180"/>
+      <c r="M58" s="180"/>
+      <c r="N58" s="180"/>
+      <c r="O58" s="180"/>
+      <c r="P58" s="180"/>
+      <c r="Q58" s="180"/>
+      <c r="R58" s="180"/>
+      <c r="S58" s="180"/>
+      <c r="T58" s="180"/>
+      <c r="U58" s="180"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="180"/>
+      <c r="X58" s="180"/>
+      <c r="Y58" s="180"/>
+      <c r="Z58" s="180"/>
+      <c r="AA58" s="180"/>
+      <c r="AB58" s="181"/>
     </row>
     <row r="59" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="42"/>
@@ -11304,7 +11333,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="169" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F61" s="169"/>
       <c r="G61" s="169"/>
@@ -11312,7 +11341,7 @@
       <c r="I61" s="169"/>
       <c r="J61" s="169"/>
       <c r="K61" s="169" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L61" s="169"/>
       <c r="M61" s="169"/>
@@ -11338,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="169" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F62" s="169"/>
       <c r="G62" s="169"/>
@@ -11372,7 +11401,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="169" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F63" s="169"/>
       <c r="G63" s="169"/>
@@ -11406,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="169" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F64" s="169"/>
       <c r="G64" s="169"/>
@@ -11414,7 +11443,7 @@
       <c r="I64" s="169"/>
       <c r="J64" s="169"/>
       <c r="K64" s="169" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L64" s="169"/>
       <c r="M64" s="169"/>
@@ -11440,7 +11469,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="169" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F65" s="169"/>
       <c r="G65" s="169"/>
@@ -11448,7 +11477,7 @@
       <c r="I65" s="169"/>
       <c r="J65" s="169"/>
       <c r="K65" s="169" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L65" s="169"/>
       <c r="M65" s="169"/>
@@ -11474,7 +11503,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F66" s="169"/>
       <c r="G66" s="169"/>
@@ -11482,7 +11511,7 @@
       <c r="I66" s="169"/>
       <c r="J66" s="169"/>
       <c r="K66" s="169" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L66" s="169"/>
       <c r="M66" s="169"/>
@@ -11508,7 +11537,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F67" s="169"/>
       <c r="G67" s="169"/>
@@ -11544,6 +11573,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:AB67"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:AB64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="K65:AB65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="K66:AB66"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:AB61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="K62:AB62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="K63:AB63"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="K58:AB58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:AB59"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="E60:J60"/>
     <mergeCell ref="K60:AB60"/>
     <mergeCell ref="AG1:AI1"/>
@@ -11560,27 +11610,6 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="K58:AB58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:AB59"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:AB61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="K62:AB62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="K63:AB63"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:AB67"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:AB64"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="K65:AB65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="K66:AB66"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -11605,7 +11634,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11634,24 +11663,24 @@
         <v>44</v>
       </c>
       <c r="D1" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="182" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="182" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G1" s="182" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H1" s="182" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="182"/>
       <c r="J1" s="182"/>
       <c r="K1" s="182" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -11663,13 +11692,13 @@
       <c r="F2" s="182"/>
       <c r="G2" s="184"/>
       <c r="H2" s="99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I2" s="99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K2" s="182"/>
     </row>
@@ -11681,29 +11710,29 @@
         <v>45</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G3" s="91"/>
       <c r="H3" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="191.25" x14ac:dyDescent="0.15">
@@ -11717,7 +11746,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>41</v>
@@ -11727,16 +11756,16 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -11744,32 +11773,32 @@
         <v>31</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="97" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
@@ -11783,23 +11812,23 @@
         <v>39</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="91"/>
     </row>
@@ -11808,34 +11837,34 @@
         <v>31</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -11846,28 +11875,28 @@
         <v>25</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K8" s="91" t="s">
         <v>6</v>
@@ -11878,34 +11907,34 @@
         <v>31</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K9" s="91" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -11916,32 +11945,34 @@
         <v>42</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" s="91"/>
-    </row>
-    <row r="11" spans="1:11" ht="315" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A11" s="89" t="s">
         <v>31</v>
       </c>
@@ -11949,29 +11980,29 @@
         <v>36</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K11" s="91" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11982,29 +12013,29 @@
         <v>36</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -12012,29 +12043,29 @@
         <v>32</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" s="91"/>
     </row>
@@ -12043,29 +12074,29 @@
         <v>32</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="97" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="91"/>
     </row>
@@ -12077,29 +12108,29 @@
         <v>40</v>
       </c>
       <c r="C15" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="91" t="s">
         <v>151</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>154</v>
       </c>
       <c r="E15" s="91" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="91" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
@@ -12107,29 +12138,29 @@
         <v>32</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K16" s="91"/>
     </row>
@@ -12138,32 +12169,32 @@
         <v>32</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K17" s="91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
@@ -12171,32 +12202,32 @@
         <v>32</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E18" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
@@ -12204,32 +12235,32 @@
         <v>32</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.15">
@@ -12243,23 +12274,23 @@
         <v>1</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="91"/>
     </row>
@@ -12271,28 +12302,28 @@
         <v>2</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="91" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="91"/>
     </row>
@@ -12301,34 +12332,34 @@
         <v>32</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K22" s="91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
@@ -12336,34 +12367,34 @@
         <v>32</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" s="89" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="H23" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>57</v>
-      </c>
       <c r="J23" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K23" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
@@ -12371,34 +12402,34 @@
         <v>32</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="G24" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="89" t="s">
-        <v>60</v>
-      </c>
       <c r="H24" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I24" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K24" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
@@ -12406,31 +12437,31 @@
         <v>32</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="97" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="95" t="s">
+      <c r="G25" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="89" t="s">
-        <v>63</v>
-      </c>
       <c r="H25" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" s="91" t="s">
         <v>27</v>
@@ -12441,31 +12472,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G26" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" s="91" t="s">
         <v>30</v>
@@ -12473,391 +12504,391 @@
     </row>
     <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A27" s="89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E27" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="G27" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="G27" s="89" t="s">
-        <v>282</v>
-      </c>
       <c r="H27" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J27" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A28" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="91" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E28" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28" s="89" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="89" t="s">
-        <v>281</v>
-      </c>
       <c r="H28" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K28" s="91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A29" s="89" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K29" s="91"/>
     </row>
     <row r="30" spans="1:11" ht="270" x14ac:dyDescent="0.15">
       <c r="A30" s="89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J30" s="92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" s="91"/>
     </row>
     <row r="31" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A31" s="89" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="91"/>
     </row>
     <row r="32" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A32" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I32" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A33" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K33" s="91" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="91"/>
       <c r="H34" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A35" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E35" s="89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G35" s="89"/>
       <c r="H35" s="98" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K35" s="91"/>
     </row>
     <row r="36" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A36" s="89" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C36" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I36" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J36" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K36" s="91"/>
     </row>
     <row r="37" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A37" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F37" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I37" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" s="91"/>
     </row>
     <row r="38" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A38" s="89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K38" s="91" t="s">
         <v>14</v>
@@ -12865,46 +12896,46 @@
     </row>
     <row r="39" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A39" s="89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G39" s="91"/>
       <c r="H39" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I39" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K39" s="89" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B40" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>126</v>
       </c>
       <c r="D40" s="91" t="s">
         <v>23</v>
@@ -12913,17 +12944,17 @@
         <v>24</v>
       </c>
       <c r="F40" s="90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I40" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="91"/>
     </row>
@@ -12932,31 +12963,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E41" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K41" s="91" t="s">
         <v>15</v>
@@ -12967,265 +12998,265 @@
         <v>33</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="91"/>
       <c r="H42" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K42" s="89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A43" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="91" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>77</v>
-      </c>
       <c r="F43" s="93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="89"/>
       <c r="H43" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K43" s="91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="89" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G44" s="89"/>
       <c r="H44" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A45" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E45" s="89" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G45" s="89"/>
       <c r="H45" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K45" s="89" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A46" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E46" s="89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K46" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A47" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="97" t="s">
-        <v>262</v>
-      </c>
       <c r="D47" s="89" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E47" s="89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F47" s="95" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G47" s="89"/>
       <c r="H47" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K47" s="89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="89"/>
       <c r="H48" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E49" s="89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G49" s="89"/>
       <c r="H49" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I49" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K49" s="89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">

--- a/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
+++ b/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C257DB7-E900-40E7-9822-7B06320EEB33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="315" windowWidth="26715" windowHeight="10080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -25,17 +26,25 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="358">
   <si>
     <t xml:space="preserve">データベース論理設計
 </t>
@@ -779,11 +788,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>サブシステム一覧
-システム機能一覧</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -913,13 +917,6 @@
 外部接続テストデータ
 サーバ機器（アプリケーションデプロイ済み）
 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
-－
-×
-－</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1904,49 +1901,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchが標準で提供するドキュメント規約と設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchが標準で提供するコーディング規約をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ム</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2837,21 +2791,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>－
-－
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-－
-－
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">ワークパッケージを実施する担当チームを示す。
 担当チームは下記3チームを想定する。
 ア： 方式設計やドキュメント標準化といった開発基盤の開発作業を担当するアーキチーム。
@@ -3030,11 +2969,6 @@
     <rPh sb="2" eb="3">
       <t>シルベ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-○</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3282,20 +3216,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Javaコーディング規約
-JSPコーディング規約
-SQLコーディング規約
-JavaScriptコーディング規約</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ネットワーク・サーバ配置設計書
 アプリケーションサーバ配置設計書
 サーバ機器（購入済み）</t>
@@ -3441,40 +3361,6 @@
     <rPh sb="7" eb="10">
       <t>セッケイショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
-×
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○×</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3628,16 +3514,6 @@
   </si>
   <si>
     <t>×
-○
-○
-○
-○
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
 ×
 －</t>
     <phoneticPr fontId="3"/>
@@ -3654,35 +3530,6 @@
 －
 －
 ×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -4118,18 +3965,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステムインタフェース一覧</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>サブシステム分割
 非機能要件定義
 外部インタフェース設計</t>
@@ -4239,35 +4074,6 @@
       <t>ヒョウジュン</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ドキュメント規約
-システム機能一覧
-システム処理フロー
-システム機能設計書(画面処理用)
-システム機能設計書(バッチ処理用)
-システム機能設計書(メッセージ処理用)
-画面遷移図
-画面一覧
-リクエスト一覧
-外部インタフェース一覧
-外部インタフェース設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-メール設計書
-メッセージ設計書
-ネット・ジョブフロー
-ドメイン定義書
-テーブル定義書
-テーブル一覧
-排他制御単位定義書
-コード設計書
-採番一覧
-共通コンポーネント一覧
-共通コンポーネント設計書
-単体テスト仕様書(共通コンポーネント)
-単体テスト仕様書(リクエスト・取引単体)
-</t>
   </si>
   <si>
     <t>外部インタフェース設計</t>
@@ -4336,10 +4142,6 @@
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">サブシステムインタフェース設計書
-</t>
   </si>
   <si>
     <t xml:space="preserve">ユーザインタフェース標準
@@ -4609,16 +4411,266 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+×
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×
+○
+○
+○×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+－
+×
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム一覧
+(システム機能一覧のフォーマットを使用)
+システム機能一覧</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ドキュメント規約
+システム機能一覧
+システム処理フロー
+システム機能設計書(画面処理用)
+システム機能設計書(バッチ処理用)
+システム機能設計書(メッセージ処理用)
+画面遷移図
+画面一覧
+リクエスト一覧
+外部インタフェース一覧
+外部インタフェース設計書
+サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)
+サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+メール設計書
+メッセージ設計書
+ネット・ジョブフロー
+ドメイン定義書
+テーブル定義書
+テーブル一覧
+排他制御単位定義書
+コード設計書
+採番一覧
+共通コンポーネント一覧
+共通コンポーネント設計書
+単体テスト仕様書(共通コンポーネント)
+単体テスト仕様書(リクエスト・取引単体)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+×
+○
+○
+○
+○
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>020_アプリケーション開発標準/010_設計標準/に存在する設計ドキュメントをプロジェクト向けにカスタマイズする。</t>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchが標準で提供する設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchスタイルガイド(https://github.com/nablarch-development-standards/nablarch-style-guide)に存在するコーディング規約をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="88" eb="90">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Javaコーディング規約
+JSPコーディング規約
+SQLコーディング規約
+JavaScriptコーディング規約
+シェルスクリプトスタイルガイド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇
+〇
+〇
+〇
+〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+○
+○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シートの「F列」が実態と乖離していたため修正。</t>
+    <rPh sb="17" eb="19">
+      <t>ジッタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5543,23 +5595,26 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="パーセント 2" xfId="5"/>
+    <cellStyle name="パーセント 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="6"/>
-    <cellStyle name="標準 3 2" xfId="7"/>
-    <cellStyle name="標準 4" xfId="8"/>
-    <cellStyle name="標準 5" xfId="9"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5582,7 +5637,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5597,7 +5658,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5681,7 +5748,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5781,7 +5854,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5876,7 +5955,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 13"/>
+        <xdr:cNvPr id="2" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -5891,7 +5976,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="AutoShape 2"/>
+          <xdr:cNvPr id="3" name="AutoShape 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5940,7 +6031,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="AutoShape 3"/>
+          <xdr:cNvPr id="4" name="AutoShape 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5992,7 +6089,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="AutoShape 4"/>
+          <xdr:cNvPr id="5" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6044,7 +6147,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="AutoShape 5"/>
+          <xdr:cNvPr id="6" name="AutoShape 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6096,7 +6205,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="AutoShape 6"/>
+          <xdr:cNvPr id="7" name="AutoShape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6148,7 +6263,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="AutoShape 7"/>
+          <xdr:cNvPr id="8" name="AutoShape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6200,7 +6321,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="AutoShape 9"/>
+          <xdr:cNvPr id="9" name="AutoShape 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6306,7 +6433,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="AutoShape 11"/>
+          <xdr:cNvPr id="10" name="AutoShape 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6363,7 +6496,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6405,7 +6538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6438,9 +6571,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6473,6 +6623,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6648,7 +6815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6656,101 +6823,101 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="6.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="100">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
+        <v>43896</v>
       </c>
       <c r="J25" s="100"/>
       <c r="K25" s="100"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="22"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="21"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="21"/>
       <c r="G30" s="23"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="21"/>
       <c r="G31" s="23"/>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="21"/>
       <c r="G32" s="23"/>
       <c r="H32" s="21"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="21"/>
       <c r="H33" s="21"/>
       <c r="J33" s="25"/>
@@ -6760,7 +6927,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="21"/>
       <c r="H34" s="21"/>
       <c r="J34" s="24"/>
@@ -6773,515 +6940,515 @@
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
       <c r="Q35" s="28"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="29"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="28"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="30"/>
       <c r="P37" s="30"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="31"/>
       <c r="S37" s="30"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="31"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="30"/>
       <c r="P39" s="30"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -7296,7 +7463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7306,14 +7473,14 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -7329,13 +7496,13 @@
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
       <c r="O1" s="116" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P1" s="117"/>
       <c r="Q1" s="117"/>
       <c r="R1" s="118"/>
       <c r="S1" s="125" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="T1" s="126"/>
       <c r="U1" s="126"/>
@@ -7345,7 +7512,7 @@
       <c r="Y1" s="126"/>
       <c r="Z1" s="127"/>
       <c r="AA1" s="107" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AB1" s="109"/>
       <c r="AC1" s="134" t="str">
@@ -7367,9 +7534,9 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="3"/>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -7397,19 +7564,19 @@
       <c r="Y2" s="129"/>
       <c r="Z2" s="130"/>
       <c r="AA2" s="107" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="109"/>
       <c r="AC2" s="113" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="114"/>
       <c r="AE2" s="114"/>
       <c r="AF2" s="115"/>
-      <c r="AG2" s="101" t="str">
+      <c r="AG2" s="101">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>43896</v>
       </c>
       <c r="AH2" s="102"/>
       <c r="AI2" s="103"/>
@@ -7419,9 +7586,9 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -7463,9 +7630,9 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
@@ -7477,7 +7644,7 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="6"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -7489,26 +7656,26 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
     </row>
-    <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="104" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="105"/>
       <c r="G7" s="104" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H7" s="106"/>
       <c r="I7" s="105"/>
       <c r="J7" s="104" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="106"/>
@@ -7517,7 +7684,7 @@
       <c r="O7" s="106"/>
       <c r="P7" s="105"/>
       <c r="Q7" s="104" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R7" s="106"/>
       <c r="S7" s="106"/>
@@ -7534,18 +7701,18 @@
       <c r="AD7" s="106"/>
       <c r="AE7" s="105"/>
       <c r="AF7" s="104" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG7" s="106"/>
       <c r="AH7" s="106"/>
       <c r="AI7" s="105"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33">
         <v>1</v>
       </c>
       <c r="B8" s="149" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C8" s="150"/>
       <c r="D8" s="151">
@@ -7554,12 +7721,12 @@
       <c r="E8" s="152"/>
       <c r="F8" s="153"/>
       <c r="G8" s="154" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H8" s="155"/>
       <c r="I8" s="156"/>
       <c r="J8" s="157" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
@@ -7568,7 +7735,7 @@
       <c r="O8" s="158"/>
       <c r="P8" s="159"/>
       <c r="Q8" s="160" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="R8" s="161"/>
       <c r="S8" s="161"/>
@@ -7585,30 +7752,38 @@
       <c r="AD8" s="161"/>
       <c r="AE8" s="162"/>
       <c r="AF8" s="157" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="AG8" s="158"/>
       <c r="AH8" s="158"/>
       <c r="AI8" s="159"/>
     </row>
-    <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="137"/>
       <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
+      <c r="D9" s="139">
+        <v>43896</v>
+      </c>
       <c r="E9" s="140"/>
       <c r="F9" s="141"/>
-      <c r="G9" s="139"/>
+      <c r="G9" s="139" t="s">
+        <v>341</v>
+      </c>
       <c r="H9" s="142"/>
       <c r="I9" s="138"/>
-      <c r="J9" s="143"/>
+      <c r="J9" s="143" t="s">
+        <v>342</v>
+      </c>
       <c r="K9" s="144"/>
       <c r="L9" s="144"/>
       <c r="M9" s="144"/>
       <c r="N9" s="144"/>
       <c r="O9" s="144"/>
       <c r="P9" s="145"/>
-      <c r="Q9" s="146"/>
+      <c r="Q9" s="146" t="s">
+        <v>357</v>
+      </c>
       <c r="R9" s="147"/>
       <c r="S9" s="147"/>
       <c r="T9" s="147"/>
@@ -7623,12 +7798,14 @@
       <c r="AC9" s="147"/>
       <c r="AD9" s="147"/>
       <c r="AE9" s="148"/>
-      <c r="AF9" s="143"/>
+      <c r="AF9" s="143" t="s">
+        <v>293</v>
+      </c>
       <c r="AG9" s="144"/>
       <c r="AH9" s="144"/>
       <c r="AI9" s="145"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="137"/>
       <c r="C10" s="138"/>
@@ -7665,7 +7842,7 @@
       <c r="AH10" s="144"/>
       <c r="AI10" s="145"/>
     </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="137"/>
       <c r="C11" s="138"/>
@@ -7702,7 +7879,7 @@
       <c r="AH11" s="144"/>
       <c r="AI11" s="145"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="137"/>
       <c r="C12" s="138"/>
@@ -7739,7 +7916,7 @@
       <c r="AH12" s="144"/>
       <c r="AI12" s="145"/>
     </row>
-    <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="137"/>
       <c r="C13" s="138"/>
@@ -7776,7 +7953,7 @@
       <c r="AH13" s="144"/>
       <c r="AI13" s="145"/>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="137"/>
       <c r="C14" s="138"/>
@@ -7813,7 +7990,7 @@
       <c r="AH14" s="144"/>
       <c r="AI14" s="145"/>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="137"/>
       <c r="C15" s="138"/>
@@ -7850,7 +8027,7 @@
       <c r="AH15" s="144"/>
       <c r="AI15" s="145"/>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="137"/>
       <c r="C16" s="138"/>
@@ -7887,7 +8064,7 @@
       <c r="AH16" s="144"/>
       <c r="AI16" s="145"/>
     </row>
-    <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="137"/>
       <c r="C17" s="138"/>
@@ -7924,7 +8101,7 @@
       <c r="AH17" s="144"/>
       <c r="AI17" s="145"/>
     </row>
-    <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
       <c r="B18" s="137"/>
       <c r="C18" s="138"/>
@@ -7961,7 +8138,7 @@
       <c r="AH18" s="144"/>
       <c r="AI18" s="145"/>
     </row>
-    <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="137"/>
       <c r="C19" s="138"/>
@@ -7998,7 +8175,7 @@
       <c r="AH19" s="144"/>
       <c r="AI19" s="145"/>
     </row>
-    <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
       <c r="B20" s="137"/>
       <c r="C20" s="138"/>
@@ -8035,7 +8212,7 @@
       <c r="AH20" s="144"/>
       <c r="AI20" s="145"/>
     </row>
-    <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
       <c r="B21" s="137"/>
       <c r="C21" s="138"/>
@@ -8072,7 +8249,7 @@
       <c r="AH21" s="144"/>
       <c r="AI21" s="145"/>
     </row>
-    <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
       <c r="B22" s="137"/>
       <c r="C22" s="138"/>
@@ -8109,7 +8286,7 @@
       <c r="AH22" s="144"/>
       <c r="AI22" s="145"/>
     </row>
-    <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
       <c r="B23" s="137"/>
       <c r="C23" s="138"/>
@@ -8146,7 +8323,7 @@
       <c r="AH23" s="144"/>
       <c r="AI23" s="145"/>
     </row>
-    <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
       <c r="B24" s="137"/>
       <c r="C24" s="138"/>
@@ -8183,7 +8360,7 @@
       <c r="AH24" s="144"/>
       <c r="AI24" s="145"/>
     </row>
-    <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
       <c r="B25" s="137"/>
       <c r="C25" s="138"/>
@@ -8220,7 +8397,7 @@
       <c r="AH25" s="144"/>
       <c r="AI25" s="145"/>
     </row>
-    <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
       <c r="B26" s="137"/>
       <c r="C26" s="138"/>
@@ -8257,7 +8434,7 @@
       <c r="AH26" s="144"/>
       <c r="AI26" s="145"/>
     </row>
-    <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
       <c r="B27" s="137"/>
       <c r="C27" s="138"/>
@@ -8294,7 +8471,7 @@
       <c r="AH27" s="144"/>
       <c r="AI27" s="145"/>
     </row>
-    <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
       <c r="B28" s="137"/>
       <c r="C28" s="138"/>
@@ -8331,7 +8508,7 @@
       <c r="AH28" s="144"/>
       <c r="AI28" s="145"/>
     </row>
-    <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
       <c r="B29" s="137"/>
       <c r="C29" s="138"/>
@@ -8368,7 +8545,7 @@
       <c r="AH29" s="144"/>
       <c r="AI29" s="145"/>
     </row>
-    <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
       <c r="B30" s="137"/>
       <c r="C30" s="138"/>
@@ -8405,7 +8582,7 @@
       <c r="AH30" s="144"/>
       <c r="AI30" s="145"/>
     </row>
-    <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
       <c r="B31" s="137"/>
       <c r="C31" s="138"/>
@@ -8442,7 +8619,7 @@
       <c r="AH31" s="144"/>
       <c r="AI31" s="145"/>
     </row>
-    <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
       <c r="B32" s="137"/>
       <c r="C32" s="138"/>
@@ -8479,7 +8656,7 @@
       <c r="AH32" s="144"/>
       <c r="AI32" s="145"/>
     </row>
-    <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
       <c r="B33" s="137"/>
       <c r="C33" s="138"/>
@@ -8516,7 +8693,7 @@
       <c r="AH33" s="144"/>
       <c r="AI33" s="145"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25">
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="36"/>
     </row>
   </sheetData>
@@ -8710,7 +8887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8720,7 +8897,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="3.625" style="49" customWidth="1"/>
     <col min="17" max="17" width="3.625" style="69" customWidth="1"/>
@@ -8855,9 +9032,9 @@
     <col min="16163" max="16384" width="3.625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -8876,7 +9053,7 @@
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
       <c r="O1" s="116" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P1" s="117"/>
       <c r="Q1" s="117"/>
@@ -8893,7 +9070,7 @@
       <c r="Y1" s="126"/>
       <c r="Z1" s="127"/>
       <c r="AA1" s="167" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AB1" s="168"/>
       <c r="AC1" s="134" t="str">
@@ -8913,9 +9090,9 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -8946,19 +9123,19 @@
       <c r="Y2" s="129"/>
       <c r="Z2" s="130"/>
       <c r="AA2" s="167" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="168"/>
       <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="135"/>
       <c r="AE2" s="135"/>
       <c r="AF2" s="136"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43896</v>
       </c>
       <c r="AH2" s="165"/>
       <c r="AI2" s="166"/>
@@ -8966,9 +9143,9 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -9017,7 +9194,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" s="39" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:38" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -9054,7 +9231,7 @@
       <c r="AH4" s="37"/>
       <c r="AI4" s="37"/>
     </row>
-    <row r="5" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -9072,7 +9249,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="40" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
@@ -9093,7 +9270,7 @@
       <c r="AH5" s="37"/>
       <c r="AI5" s="37"/>
     </row>
-    <row r="6" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:38" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -9130,10 +9307,10 @@
       <c r="AH6" s="37"/>
       <c r="AI6" s="37"/>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1">
+    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="37" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -9169,11 +9346,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1">
+    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="41"/>
       <c r="B8" s="37"/>
       <c r="C8" s="42" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9208,11 +9385,11 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1">
+    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="41"/>
       <c r="B9" s="37"/>
       <c r="C9" s="42" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9246,11 +9423,11 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="41"/>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1">
+    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="41"/>
       <c r="B10" s="37"/>
       <c r="C10" s="42" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -9284,7 +9461,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1">
+    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -9320,10 +9497,10 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="37" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -9359,7 +9536,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1">
+    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="41"/>
       <c r="B13" s="43"/>
       <c r="C13" s="37"/>
@@ -9396,7 +9573,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1">
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41"/>
       <c r="B14" s="48"/>
       <c r="C14" s="37"/>
@@ -9433,7 +9610,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1">
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
       <c r="B15" s="53"/>
       <c r="C15" s="37"/>
@@ -9470,7 +9647,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1">
+    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -9507,7 +9684,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -9544,7 +9721,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -9581,7 +9758,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="48"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -9618,7 +9795,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -9655,7 +9832,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="48"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -9691,7 +9868,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="48"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -9728,7 +9905,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="48"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
       <c r="B23" s="53"/>
       <c r="C23" s="43"/>
@@ -9765,7 +9942,7 @@
       <c r="AH23" s="47"/>
       <c r="AI23" s="48"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -9802,7 +9979,7 @@
       <c r="AH24" s="47"/>
       <c r="AI24" s="48"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
       <c r="B25" s="37"/>
       <c r="C25" s="41"/>
@@ -9839,7 +10016,7 @@
       <c r="AH25" s="47"/>
       <c r="AI25" s="48"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
       <c r="B26" s="37"/>
       <c r="C26" s="41"/>
@@ -9876,7 +10053,7 @@
       <c r="AH26" s="47"/>
       <c r="AI26" s="48"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="41"/>
       <c r="B27" s="37"/>
       <c r="C27" s="41"/>
@@ -9913,7 +10090,7 @@
       <c r="AH27" s="47"/>
       <c r="AI27" s="48"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
       <c r="B28" s="37"/>
       <c r="C28" s="41"/>
@@ -9950,7 +10127,7 @@
       <c r="AH28" s="47"/>
       <c r="AI28" s="48"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
       <c r="B29" s="37"/>
       <c r="C29" s="41"/>
@@ -9987,7 +10164,7 @@
       <c r="AH29" s="47"/>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -10024,7 +10201,7 @@
       <c r="AH30" s="57"/>
       <c r="AI30" s="58"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
@@ -10061,7 +10238,7 @@
       <c r="AH31" s="57"/>
       <c r="AI31" s="58"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="61"/>
       <c r="C32" s="41"/>
@@ -10098,7 +10275,7 @@
       <c r="AH32" s="57"/>
       <c r="AI32" s="58"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="61"/>
       <c r="C33" s="41"/>
@@ -10135,7 +10312,7 @@
       <c r="AH33" s="57"/>
       <c r="AI33" s="58"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="61"/>
       <c r="C34" s="41"/>
@@ -10172,7 +10349,7 @@
       <c r="AH34" s="57"/>
       <c r="AI34" s="58"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="61"/>
       <c r="C35" s="41"/>
@@ -10209,7 +10386,7 @@
       <c r="AH35" s="57"/>
       <c r="AI35" s="58"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -10246,7 +10423,7 @@
       <c r="AH36" s="66"/>
       <c r="AI36" s="54"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="67"/>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
@@ -10278,7 +10455,7 @@
       <c r="AH37" s="74"/>
       <c r="AI37" s="70"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="70"/>
       <c r="T38" s="70"/>
       <c r="U38" s="71"/>
@@ -10297,7 +10474,7 @@
       <c r="AH38" s="77"/>
       <c r="AI38" s="70"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="78"/>
       <c r="S39" s="70"/>
       <c r="T39" s="71"/>
@@ -10317,7 +10494,7 @@
       <c r="AH39" s="77"/>
       <c r="AI39" s="70"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="70"/>
       <c r="T40" s="70"/>
       <c r="U40" s="70"/>
@@ -10336,7 +10513,7 @@
       <c r="AH40" s="77"/>
       <c r="AI40" s="70"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
@@ -10350,37 +10527,37 @@
       <c r="AH41" s="77"/>
       <c r="AI41" s="70"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="70"/>
       <c r="AF42" s="75"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="77"/>
       <c r="AI42" s="70"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="70"/>
       <c r="AF43" s="75"/>
       <c r="AG43" s="75"/>
       <c r="AH43" s="77"/>
       <c r="AI43" s="70"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="67"/>
       <c r="AF44" s="79"/>
       <c r="AG44" s="79"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="67"/>
       <c r="AG45" s="79"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="79"/>
       <c r="AG46" s="79"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="79"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
       <c r="V48" s="67"/>
@@ -10393,7 +10570,7 @@
       <c r="AC48" s="67"/>
       <c r="AD48" s="67"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="67"/>
       <c r="S49" s="67"/>
       <c r="T49" s="67"/>
@@ -10408,10 +10585,10 @@
       <c r="AD49" s="67"/>
       <c r="AG49" s="79"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="67"/>
     </row>
-    <row r="51" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
@@ -10444,7 +10621,7 @@
       <c r="AD51" s="49"/>
       <c r="AH51" s="78"/>
     </row>
-    <row r="52" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
@@ -10506,7 +10683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10516,7 +10693,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="3.625" style="35" customWidth="1"/>
     <col min="3" max="5" width="3.625" style="84" customWidth="1"/>
@@ -10533,9 +10710,9 @@
     <col min="32" max="16384" width="3.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -10554,7 +10731,7 @@
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
       <c r="O1" s="170" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="P1" s="171"/>
       <c r="Q1" s="171"/>
@@ -10571,7 +10748,7 @@
       <c r="Y1" s="126"/>
       <c r="Z1" s="127"/>
       <c r="AA1" s="107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AB1" s="109"/>
       <c r="AC1" s="134" t="str">
@@ -10599,9 +10776,9 @@
       <c r="AV1" s="43"/>
       <c r="AW1" s="43"/>
     </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -10632,19 +10809,19 @@
       <c r="Y2" s="129"/>
       <c r="Z2" s="130"/>
       <c r="AA2" s="107" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AB2" s="109"/>
       <c r="AC2" s="134" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
       <c r="AD2" s="135"/>
       <c r="AE2" s="135"/>
       <c r="AF2" s="136"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43896</v>
       </c>
       <c r="AH2" s="165"/>
       <c r="AI2" s="166"/>
@@ -10660,9 +10837,9 @@
       <c r="AV2" s="43"/>
       <c r="AW2" s="43"/>
     </row>
-    <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -10722,7 +10899,7 @@
       <c r="AV3" s="81"/>
       <c r="AW3" s="81"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1">
+    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="37"/>
@@ -10774,10 +10951,10 @@
       <c r="AW4" s="41"/>
       <c r="AX4" s="41"/>
     </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1">
+    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -10828,233 +11005,233 @@
       <c r="AW5" s="41"/>
       <c r="AX5" s="41"/>
     </row>
-    <row r="6" spans="1:50" ht="12" customHeight="1">
+    <row r="6" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="12" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="42"/>
     </row>
-    <row r="8" spans="1:50" ht="12" customHeight="1">
+    <row r="8" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="42"/>
       <c r="D8" s="85" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="12" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="42"/>
       <c r="D9" s="85" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="12" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="42"/>
       <c r="D10" s="85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="12" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="42"/>
       <c r="D11" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="12" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="42"/>
       <c r="D12" s="85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="12" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="42"/>
       <c r="D13" s="85"/>
     </row>
-    <row r="14" spans="1:50" ht="12" customHeight="1">
+    <row r="14" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="42"/>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:50" ht="12" customHeight="1">
+    <row r="15" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="42" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" ht="12" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="3:4" ht="12" customHeight="1">
+    <row r="17" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="D17" s="84" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="12" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="3:4" ht="12" customHeight="1">
+    <row r="19" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="42"/>
     </row>
-    <row r="20" spans="3:4" ht="12" customHeight="1">
+    <row r="20" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="42"/>
     </row>
-    <row r="21" spans="3:4" ht="12" customHeight="1">
+    <row r="21" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="3:4" ht="12" customHeight="1">
+    <row r="22" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="3:4" ht="12" customHeight="1">
+    <row r="23" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:4" ht="12" customHeight="1">
+    <row r="24" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:4" ht="12" customHeight="1">
+    <row r="25" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:4" ht="12" customHeight="1">
+    <row r="26" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:4" ht="12" customHeight="1">
+    <row r="27" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:4" ht="12" customHeight="1">
+    <row r="28" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:4" ht="12" customHeight="1">
+    <row r="29" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:4" ht="12" customHeight="1">
+    <row r="30" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:4" ht="12" customHeight="1">
+    <row r="31" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="3:4" ht="12" customHeight="1">
+    <row r="32" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:4" ht="12" customHeight="1">
+    <row r="33" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:4" ht="12" customHeight="1">
+    <row r="34" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:4" ht="12" customHeight="1">
+    <row r="35" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:4" ht="12" customHeight="1">
+    <row r="36" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="42"/>
     </row>
-    <row r="37" spans="3:4" ht="12" customHeight="1">
+    <row r="37" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="42"/>
     </row>
-    <row r="38" spans="3:4" ht="12" customHeight="1">
+    <row r="38" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="3:4" ht="12" customHeight="1">
+    <row r="39" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="42"/>
     </row>
-    <row r="40" spans="3:4" ht="12" customHeight="1">
+    <row r="40" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="42"/>
       <c r="D40" s="85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" ht="12" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="42"/>
       <c r="D41" s="85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="12" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="42"/>
       <c r="D42" s="85"/>
     </row>
-    <row r="43" spans="3:4" ht="12" customHeight="1">
+    <row r="43" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="42"/>
       <c r="D43" s="85" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="12" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="42"/>
       <c r="D44" s="85" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="12" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="42"/>
       <c r="D45" s="85"/>
     </row>
-    <row r="46" spans="3:4" ht="12" customHeight="1">
+    <row r="46" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="42"/>
       <c r="D46" s="85" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="12" customHeight="1">
+    <row r="47" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="42"/>
       <c r="D47" s="85" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="12" customHeight="1">
+    <row r="48" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="42"/>
       <c r="D48" s="85"/>
     </row>
-    <row r="49" spans="3:28" ht="12" customHeight="1">
+    <row r="49" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="42"/>
       <c r="D49" s="85"/>
     </row>
-    <row r="50" spans="3:28" ht="12" customHeight="1">
+    <row r="50" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="42" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="3:28" ht="12" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="42"/>
     </row>
-    <row r="52" spans="3:28" ht="12" customHeight="1">
+    <row r="52" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="42"/>
       <c r="D52" s="85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" ht="12" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="42"/>
       <c r="D53" s="86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="3:28" ht="12" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="42"/>
       <c r="D54" s="85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" ht="12" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="42"/>
       <c r="D55" s="85" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="3:28" ht="12" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="42"/>
       <c r="D56" s="85"/>
     </row>
-    <row r="57" spans="3:28" ht="12" customHeight="1">
+    <row r="57" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="42"/>
       <c r="D57" s="85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C58" s="42"/>
       <c r="D58" s="87" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E58" s="179" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" s="180"/>
       <c r="G58" s="180"/>
@@ -11062,7 +11239,7 @@
       <c r="I58" s="180"/>
       <c r="J58" s="181"/>
       <c r="K58" s="179" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L58" s="180"/>
       <c r="M58" s="180"/>
@@ -11082,7 +11259,7 @@
       <c r="AA58" s="180"/>
       <c r="AB58" s="181"/>
     </row>
-    <row r="59" spans="3:28" ht="12" customHeight="1">
+    <row r="59" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="42"/>
       <c r="D59" s="88">
         <v>1</v>
@@ -11116,7 +11293,7 @@
       <c r="AA59" s="169"/>
       <c r="AB59" s="169"/>
     </row>
-    <row r="60" spans="3:28" ht="48" customHeight="1">
+    <row r="60" spans="3:28" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="42"/>
       <c r="D60" s="88">
         <v>2</v>
@@ -11150,13 +11327,13 @@
       <c r="AA60" s="169"/>
       <c r="AB60" s="169"/>
     </row>
-    <row r="61" spans="3:28" ht="15" customHeight="1">
+    <row r="61" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="42"/>
       <c r="D61" s="88">
         <v>3</v>
       </c>
       <c r="E61" s="169" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F61" s="169"/>
       <c r="G61" s="169"/>
@@ -11164,7 +11341,7 @@
       <c r="I61" s="169"/>
       <c r="J61" s="169"/>
       <c r="K61" s="169" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L61" s="169"/>
       <c r="M61" s="169"/>
@@ -11184,13 +11361,13 @@
       <c r="AA61" s="169"/>
       <c r="AB61" s="169"/>
     </row>
-    <row r="62" spans="3:28" ht="26.25" customHeight="1">
+    <row r="62" spans="3:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="42"/>
       <c r="D62" s="88">
         <v>4</v>
       </c>
       <c r="E62" s="169" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F62" s="169"/>
       <c r="G62" s="169"/>
@@ -11218,13 +11395,13 @@
       <c r="AA62" s="169"/>
       <c r="AB62" s="169"/>
     </row>
-    <row r="63" spans="3:28" ht="16.5" customHeight="1">
+    <row r="63" spans="3:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="42"/>
       <c r="D63" s="88">
         <v>5</v>
       </c>
       <c r="E63" s="169" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F63" s="169"/>
       <c r="G63" s="169"/>
@@ -11252,13 +11429,13 @@
       <c r="AA63" s="169"/>
       <c r="AB63" s="169"/>
     </row>
-    <row r="64" spans="3:28" ht="72" customHeight="1">
+    <row r="64" spans="3:28" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="42"/>
       <c r="D64" s="88">
         <v>6</v>
       </c>
       <c r="E64" s="169" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F64" s="169"/>
       <c r="G64" s="169"/>
@@ -11266,7 +11443,7 @@
       <c r="I64" s="169"/>
       <c r="J64" s="169"/>
       <c r="K64" s="169" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="L64" s="169"/>
       <c r="M64" s="169"/>
@@ -11286,13 +11463,13 @@
       <c r="AA64" s="169"/>
       <c r="AB64" s="169"/>
     </row>
-    <row r="65" spans="3:28" ht="14.25" customHeight="1">
+    <row r="65" spans="3:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="42"/>
       <c r="D65" s="88">
         <v>7</v>
       </c>
       <c r="E65" s="169" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F65" s="169"/>
       <c r="G65" s="169"/>
@@ -11300,7 +11477,7 @@
       <c r="I65" s="169"/>
       <c r="J65" s="169"/>
       <c r="K65" s="169" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L65" s="169"/>
       <c r="M65" s="169"/>
@@ -11320,13 +11497,13 @@
       <c r="AA65" s="169"/>
       <c r="AB65" s="169"/>
     </row>
-    <row r="66" spans="3:28" ht="108" customHeight="1">
+    <row r="66" spans="3:28" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="42"/>
       <c r="D66" s="88">
         <v>8</v>
       </c>
       <c r="E66" s="169" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F66" s="169"/>
       <c r="G66" s="169"/>
@@ -11334,7 +11511,7 @@
       <c r="I66" s="169"/>
       <c r="J66" s="169"/>
       <c r="K66" s="169" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L66" s="169"/>
       <c r="M66" s="169"/>
@@ -11354,13 +11531,13 @@
       <c r="AA66" s="169"/>
       <c r="AB66" s="169"/>
     </row>
-    <row r="67" spans="3:28" ht="55.5" customHeight="1">
+    <row r="67" spans="3:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="42"/>
       <c r="D67" s="88">
         <v>9</v>
       </c>
       <c r="E67" s="169" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F67" s="169"/>
       <c r="G67" s="169"/>
@@ -11388,10 +11565,10 @@
       <c r="AA67" s="169"/>
       <c r="AB67" s="169"/>
     </row>
-    <row r="68" spans="3:28" ht="12" customHeight="1">
+    <row r="68" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="42"/>
     </row>
-    <row r="69" spans="3:28" ht="12" customHeight="1">
+    <row r="69" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="42"/>
     </row>
   </sheetData>
@@ -11449,7 +11626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11460,7 +11637,7 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="11" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="11" customWidth="1"/>
@@ -11475,7 +11652,7 @@
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="182" t="s">
         <v>34</v>
       </c>
@@ -11486,27 +11663,27 @@
         <v>44</v>
       </c>
       <c r="D1" s="182" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="182" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" s="182" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G1" s="182" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H1" s="182" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="182"/>
       <c r="J1" s="182"/>
       <c r="K1" s="182" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="182"/>
       <c r="B2" s="182"/>
       <c r="C2" s="183"/>
@@ -11515,17 +11692,17 @@
       <c r="F2" s="182"/>
       <c r="G2" s="184"/>
       <c r="H2" s="99" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I2" s="99" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K2" s="182"/>
     </row>
-    <row r="3" spans="1:11" ht="101.25">
+    <row r="3" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A3" s="89" t="s">
         <v>31</v>
       </c>
@@ -11533,32 +11710,32 @@
         <v>45</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G3" s="91"/>
       <c r="H3" s="92" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="J3" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="191.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="191.25" x14ac:dyDescent="0.15">
       <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
@@ -11569,7 +11746,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>41</v>
@@ -11579,52 +11756,52 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J4" s="92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="97" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33.75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A6" s="89" t="s">
         <v>31</v>
       </c>
@@ -11635,62 +11812,62 @@
         <v>39</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K6" s="91"/>
     </row>
-    <row r="7" spans="1:11" ht="157.5">
+    <row r="7" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A7" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="56.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A8" s="89" t="s">
         <v>31</v>
       </c>
@@ -11698,69 +11875,69 @@
         <v>25</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" s="89" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K8" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="372.75" customHeight="1">
+    <row r="9" spans="1:11" ht="372.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K9" s="91" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="89" t="s">
         <v>31</v>
       </c>
@@ -11768,32 +11945,34 @@
         <v>42</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E10" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="F10" s="93" t="s">
-        <v>218</v>
-      </c>
       <c r="G10" s="89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="K10" s="91"/>
-    </row>
-    <row r="11" spans="1:11" ht="315">
+        <v>312</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A11" s="89" t="s">
         <v>31</v>
       </c>
@@ -11801,32 +11980,32 @@
         <v>36</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K11" s="91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63.75" customHeight="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89" t="s">
         <v>31</v>
       </c>
@@ -11834,94 +12013,94 @@
         <v>36</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D12" s="89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>252</v>
+        <v>352</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="91"/>
     </row>
-    <row r="14" spans="1:11" ht="67.5">
+    <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="97" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="90" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K14" s="91"/>
     </row>
-    <row r="15" spans="1:11" ht="101.25">
+    <row r="15" spans="1:11" ht="101.25" x14ac:dyDescent="0.15">
       <c r="A15" s="89" t="s">
         <v>32</v>
       </c>
@@ -11929,162 +12108,162 @@
         <v>40</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E15" s="91" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J15" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K15" s="91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="78.75">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A16" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J16" s="92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K16" s="91"/>
     </row>
-    <row r="17" spans="1:11" ht="146.25">
+    <row r="17" spans="1:11" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A17" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K17" s="91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="157.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A18" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E18" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K18" s="91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="157.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A19" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K19" s="91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="90">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A20" s="89" t="s">
         <v>32</v>
       </c>
@@ -12095,27 +12274,27 @@
         <v>1</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J20" s="92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" s="91"/>
     </row>
-    <row r="21" spans="1:11" ht="123.75">
+    <row r="21" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A21" s="89" t="s">
         <v>32</v>
       </c>
@@ -12123,640 +12302,640 @@
         <v>2</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="91" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="90" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K21" s="91"/>
     </row>
-    <row r="22" spans="1:11" ht="270.75" customHeight="1">
+    <row r="22" spans="1:11" ht="270.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F22" s="90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I22" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K22" s="91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="123.75">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A23" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D23" s="89" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="K23" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="94" t="s">
-        <v>327</v>
-      </c>
-      <c r="K23" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="78.75">
+    </row>
+    <row r="24" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A24" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="G24" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="89" t="s">
-        <v>60</v>
-      </c>
       <c r="H24" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I24" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J24" s="92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K24" s="91" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="56.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A25" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="97" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="95" t="s">
+      <c r="G25" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="89" t="s">
-        <v>63</v>
-      </c>
       <c r="H25" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J25" s="92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" s="91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="89" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G26" s="91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J26" s="92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="90">
+    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A27" s="89" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J27" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27" s="91"/>
     </row>
-    <row r="28" spans="1:11" ht="281.25">
+    <row r="28" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A28" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="91" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>222</v>
+        <v>339</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J28" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="91" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="281.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="281.25" x14ac:dyDescent="0.15">
       <c r="A29" s="89" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>221</v>
+        <v>338</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="J29" s="92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K29" s="91"/>
     </row>
-    <row r="30" spans="1:11" ht="270">
+    <row r="30" spans="1:11" ht="270" x14ac:dyDescent="0.15">
       <c r="A30" s="89" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B30" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="91"/>
+    </row>
+    <row r="31" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="F30" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="I30" s="92" t="s">
-        <v>326</v>
-      </c>
-      <c r="J30" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="91"/>
-    </row>
-    <row r="31" spans="1:11" ht="78.75">
-      <c r="A31" s="89" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>137</v>
-      </c>
       <c r="C31" s="97" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J31" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K31" s="91"/>
     </row>
-    <row r="32" spans="1:11" ht="56.25">
+    <row r="32" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A32" s="89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I32" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J32" s="92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K32" s="91"/>
     </row>
-    <row r="33" spans="1:11" ht="33.75">
+    <row r="33" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A33" s="89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I33" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K33" s="91" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="135">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E34" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" s="91"/>
       <c r="H34" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K34" s="89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="112.5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A35" s="89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E35" s="89" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G35" s="89"/>
       <c r="H35" s="98" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J35" s="92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K35" s="91"/>
     </row>
-    <row r="36" spans="1:11" ht="112.5">
+    <row r="36" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A36" s="89" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C36" s="97" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I36" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J36" s="92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K36" s="91"/>
     </row>
-    <row r="37" spans="1:11" ht="123.75">
+    <row r="37" spans="1:11" ht="123.75" x14ac:dyDescent="0.15">
       <c r="A37" s="89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E37" s="91" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F37" s="90" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I37" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J37" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K37" s="91"/>
     </row>
-    <row r="38" spans="1:11" ht="33.75">
+    <row r="38" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A38" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="G38" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K38" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="135">
+    <row r="39" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A39" s="89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G39" s="91"/>
       <c r="H39" s="92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I39" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K39" s="89" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" s="89" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="91" t="s">
         <v>23</v>
@@ -12765,322 +12944,322 @@
         <v>24</v>
       </c>
       <c r="F40" s="90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I40" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J40" s="92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K40" s="91"/>
     </row>
-    <row r="41" spans="1:11" ht="33.75">
+    <row r="41" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A41" s="89" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E41" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K41" s="91" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="146.25">
+    <row r="42" spans="1:11" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A42" s="89" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D42" s="91" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E42" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" s="91"/>
       <c r="H42" s="92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K42" s="89" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="56.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A43" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="91" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E43" s="89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F43" s="93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="89"/>
       <c r="H43" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I43" s="92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K43" s="91" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="90">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A44" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="89" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="93" t="s">
         <v>171</v>
-      </c>
-      <c r="E44" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="93" t="s">
-        <v>175</v>
       </c>
       <c r="G44" s="89"/>
       <c r="H44" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="135">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A45" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E45" s="89" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G45" s="89"/>
       <c r="H45" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K45" s="89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="135">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="135" x14ac:dyDescent="0.15">
       <c r="A46" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E46" s="89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K46" s="89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="168.75">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="168.75" x14ac:dyDescent="0.15">
       <c r="A47" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D47" s="89" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E47" s="89" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F47" s="95" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G47" s="89"/>
       <c r="H47" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K47" s="89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="90">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="89" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E48" s="89" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G48" s="89"/>
       <c r="H48" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I48" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="78.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E49" s="89" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G49" s="89"/>
       <c r="H49" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I49" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K49" s="89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>

--- a/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
+++ b/010_開発プロセス標準/Nablarchを使用したシステム開発における標準WBS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C257DB7-E900-40E7-9822-7B06320EEB33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D6BDB-6613-455D-96BB-1A3187D597A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="25185" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="361">
   <si>
     <t xml:space="preserve">データベース論理設計
 </t>
@@ -3707,16 +3710,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>PJ名</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3865,6 +3858,745 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アウトプットとなる成果物が開発に使用するドキュメントの場合に、そのドキュメントをNabalrchが標準で提供するか否かを示す。
+○： Nablarchが標準で提供する場合
+×： Nablarchが標準で提供しない場合
+－： アウトプットとなる成果物が開発に使用するドキュメントでない場合</t>
+    <rPh sb="9" eb="11">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム分割
+非機能要件定義
+外部インタフェース設計</t>
+  </si>
+  <si>
+    <t>プロジェクト計画書
+機能要件定義書
+非機能要件定義書
+システム機能一覧
+外部インタフェース一覧</t>
+    <rPh sb="6" eb="9">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部インタフェース設計
+Fit&amp;Gap（方式）分析</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機能要件定義書
+非機能要件定義書
+外部インタフェース一覧
+方式設計Gap一覧
+</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザインタフェース標準</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部インタフェース設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">外部インタフェース設計書
+</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機能要件定義書
+外部インタフェース一覧
+システム機能一覧
+サブシステムインタフェース一覧
+方式設計書
+</t>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム間インタフェース設計</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステムインタフェース一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+コード設計書
+</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザインタフェース標準
+方式設計書
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+システム機能一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+排他制御単位定義書
+採番一覧
+コード設計書
+</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データベース論理設計
+サブシステム間インタフェース設計</t>
+    <rPh sb="6" eb="8">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">方式設計書
+外部インタフェース一覧
+外部インタフェース設計書
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+システム機能一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+排他制御単位定義書
+採番一覧
+コード設計書
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部インタフェース設計書
+サブシステムインタフェース設計書
+ソースコードリポジトリ
+</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザインタフェース標準
+方式設計書
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+システム機能一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+排他制御単位定義書
+採番一覧
+リクエスト一覧
+コード設計書
+画面イメージ（HTML）
+システム機能設計書(画面処理用)
+画面遷移図
+画面一覧
+帳票設計書
+メッセージ設計書
+アプリケーション設定項目一覧
+ソースコードリポジトリ
+開発環境構築ガイド
+開発環境パッケージ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">方式設計書
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+システム機能一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+排他制御単位定義書
+採番一覧
+リクエスト一覧
+コード設計書
+画面イメージ
+システム機能設計書(バッチ処理用)
+ネット・ジョブフロー
+ジョブ実行シェルスクリプト自動生成設定
+メール設計書
+帳票設計書
+メッセージ設計書
+アプリケーション設定項目一覧
+ソースコードリポジトリ
+開発環境構築ガイド
+開発環境パッケージ
+</t>
+    <rPh sb="174" eb="176">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="176" eb="179">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">方式設計書
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+システム機能一覧
+システム処理フロー
+テーブル一覧
+ドメイン定義書
+テーブル定義書
+排他制御単位定義書
+採番一覧
+リクエスト一覧
+コード設計書
+画面イメージ
+システム機能設計書(メッセージ処理用)
+ネット・ジョブフロー
+ジョブ実行シェルスクリプト自動生成設定
+メール設計書
+メッセージ設計書
+アプリケーション設定項目一覧
+ソースコードリポジトリ
+開発環境構築ガイド
+開発環境パッケージ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部接続テスト計画書
+外部インタフェース一覧
+外部インタフェース設計書
+</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全体テスト計画
+運用設計
+サブシステム間インタフェース設計</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義書
+非機能要件定義書
+全体テスト計画書
+運用設計書
+サブシステム一覧
+システム機能一覧
+システム処理フロー
+サブシステムインタフェース一覧
+サブシステムインタフェース設計書
+</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非機能要件定義書
+方式設計書
+全体テスト計画書
+サイジング設計書
+外部インタフェース一覧
+サブシステムインタフェース一覧
+サブシステム間インタフェース設計書
+運用設計書
+</t>
+    <rPh sb="15" eb="17">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+×
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×
+○
+○
+○×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">－
+－
+－
+○
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+－
+×
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サブシステム一覧
+(システム機能一覧のフォーマットを使用)
+システム機能一覧</t>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ドキュメント規約
+システム機能一覧
+システム処理フロー
+システム機能設計書(画面処理用)
+システム機能設計書(バッチ処理用)
+システム機能設計書(メッセージ処理用)
+画面遷移図
+画面一覧
+リクエスト一覧
+外部インタフェース一覧
+外部インタフェース設計書
+サブシステムインタフェース一覧
+(外部インタフェース一覧のフォーマットを使用)
+サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+メール設計書
+メッセージ設計書
+ネット・ジョブフロー
+ドメイン定義書
+テーブル定義書
+テーブル一覧
+排他制御単位定義書
+コード設計書
+採番一覧
+共通コンポーネント一覧
+共通コンポーネント設計書
+単体テスト仕様書(共通コンポーネント)
+単体テスト仕様書(リクエスト・取引単体)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+○
+×
+○
+○
+○
+○
+○
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>020_アプリケーション開発標準/010_設計標準/に存在する設計ドキュメントをプロジェクト向けにカスタマイズする。</t>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchが標準で提供する設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nablarchスタイルガイド(https://github.com/nablarch-development-standards/nablarch-style-guide)に存在するコーディング規約をプロジェクト向けにカスタマイズする。
+</t>
+    <rPh sb="88" eb="90">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Javaコーディング規約
+JSPコーディング規約
+SQLコーディング規約
+JavaScriptコーディング規約
+シェルスクリプトスタイルガイド</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〇
+〇
+〇
+〇
+〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サブシステムインタフェース設計書
+(外部インタフェース設計書のフォーマットを使用)
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－
+○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○
+○
+○
+○
+○
+○
+×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シートの「F列」が実態と乖離していたため修正。</t>
+    <rPh sb="17" eb="19">
+      <t>ジッタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3883,7 +4615,7 @@
 　・ファイル転送処理方式
 　・都度起動バッチ
 　・常駐バッチ
-・出力ライブラリ
+・出力処理方式
 　・メッセージ仕向け（同期応答）
 　・メッセージ仕向け（無応答）
 　・ファイル配信
@@ -3920,746 +4652,53 @@
     <rPh sb="16" eb="18">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アウトプットとなる成果物が開発に使用するドキュメントの場合に、そのドキュメントをNabalrchが標準で提供するか否かを示す。
-○： Nablarchが標準で提供する場合
-×： Nablarchが標準で提供しない場合
-－： アウトプットとなる成果物が開発に使用するドキュメントでない場合</t>
-    <rPh sb="9" eb="11">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステム分割
-非機能要件定義
-外部インタフェース設計</t>
-  </si>
-  <si>
-    <t>プロジェクト計画書
-機能要件定義書
-非機能要件定義書
-システム機能一覧
-外部インタフェース一覧</t>
-    <rPh sb="6" eb="9">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
+    <rPh sb="197" eb="201">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「2. WBS」シートの「9行目K列」に「出力ライブラリ」とあったが利用者に伝わりづらいため「出力処理方式」に変更。</t>
+    <rPh sb="14" eb="16">
+      <t>ギョウメ</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部インタフェース設計
-Fit&amp;Gap（方式）分析</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">機能要件定義書
-非機能要件定義書
-外部インタフェース一覧
-方式設計Gap一覧
-</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザインタフェース標準</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部インタフェース設計</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">外部インタフェース設計書
-</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">機能要件定義書
-外部インタフェース一覧
-システム機能一覧
-サブシステムインタフェース一覧
-方式設計書
-</t>
-    <rPh sb="24" eb="26">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステム間インタフェース設計</t>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">サブシステムインタフェース一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-コード設計書
-</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザインタフェース標準
-方式設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-システム機能一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-排他制御単位定義書
-採番一覧
-コード設計書
-</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>データベース論理設計
-サブシステム間インタフェース設計</t>
-    <rPh sb="6" eb="8">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">方式設計書
-外部インタフェース一覧
-外部インタフェース設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-システム機能一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-排他制御単位定義書
-採番一覧
-コード設計書
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部インタフェース設計書
-サブシステムインタフェース設計書
-ソースコードリポジトリ
-</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザインタフェース標準
-方式設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-システム機能一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-排他制御単位定義書
-採番一覧
-リクエスト一覧
-コード設計書
-画面イメージ（HTML）
-システム機能設計書(画面処理用)
-画面遷移図
-画面一覧
-帳票設計書
-メッセージ設計書
-アプリケーション設定項目一覧
-ソースコードリポジトリ
-開発環境構築ガイド
-開発環境パッケージ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">方式設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-システム機能一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-排他制御単位定義書
-採番一覧
-リクエスト一覧
-コード設計書
-画面イメージ
-システム機能設計書(バッチ処理用)
-ネット・ジョブフロー
-ジョブ実行シェルスクリプト自動生成設定
-メール設計書
-帳票設計書
-メッセージ設計書
-アプリケーション設定項目一覧
-ソースコードリポジトリ
-開発環境構築ガイド
-開発環境パッケージ
-</t>
-    <rPh sb="174" eb="176">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="176" eb="179">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">方式設計書
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-システム機能一覧
-システム処理フロー
-テーブル一覧
-ドメイン定義書
-テーブル定義書
-排他制御単位定義書
-採番一覧
-リクエスト一覧
-コード設計書
-画面イメージ
-システム機能設計書(メッセージ処理用)
-ネット・ジョブフロー
-ジョブ実行シェルスクリプト自動生成設定
-メール設計書
-メッセージ設計書
-アプリケーション設定項目一覧
-ソースコードリポジトリ
-開発環境構築ガイド
-開発環境パッケージ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部接続テスト計画書
-外部インタフェース一覧
-外部インタフェース設計書
-</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全体テスト計画
-運用設計
-サブシステム間インタフェース設計</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">要件定義書
-非機能要件定義書
-全体テスト計画書
-運用設計書
-サブシステム一覧
-システム機能一覧
-システム処理フロー
-サブシステムインタフェース一覧
-サブシステムインタフェース設計書
-</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">非機能要件定義書
-方式設計書
-全体テスト計画書
-サイジング設計書
-外部インタフェース一覧
-サブシステムインタフェース一覧
-サブシステム間インタフェース設計書
-運用設計書
-</t>
-    <rPh sb="15" eb="17">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>×
-○
-○
-○
-×
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-×
-○
-○
-○×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">－
-－
-○
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">－
-－
-－
-○
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-－
-×
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「2. WBS」シート</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステムインタフェース一覧
-(外部インタフェース一覧のフォーマットを使用)</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サブシステム一覧
-(システム機能一覧のフォーマットを使用)
-システム機能一覧</t>
-    <rPh sb="26" eb="28">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ドキュメント規約
-システム機能一覧
-システム処理フロー
-システム機能設計書(画面処理用)
-システム機能設計書(バッチ処理用)
-システム機能設計書(メッセージ処理用)
-画面遷移図
-画面一覧
-リクエスト一覧
-外部インタフェース一覧
-外部インタフェース設計書
-サブシステムインタフェース一覧
-(外部インタフェース一覧のフォーマットを使用)
-サブシステムインタフェース設計書
-(外部インタフェース設計書のフォーマットを使用)
-メール設計書
-メッセージ設計書
-ネット・ジョブフロー
-ドメイン定義書
-テーブル定義書
-テーブル一覧
-排他制御単位定義書
-コード設計書
-採番一覧
-共通コンポーネント一覧
-共通コンポーネント設計書
-単体テスト仕様書(共通コンポーネント)
-単体テスト仕様書(リクエスト・取引単体)
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-○
-×
-○
-○
-○
-○
-○
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>020_アプリケーション開発標準/010_設計標準/に存在する設計ドキュメントをプロジェクト向けにカスタマイズする。</t>
-    <rPh sb="27" eb="29">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchが標準で提供する設計ドキュメント（解説書、フォーマット、サンプル）をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Nablarchスタイルガイド(https://github.com/nablarch-development-standards/nablarch-style-guide)に存在するコーディング規約をプロジェクト向けにカスタマイズする。
-</t>
-    <rPh sb="88" eb="90">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Javaコーディング規約
-JSPコーディング規約
-SQLコーディング規約
-JavaScriptコーディング規約
-シェルスクリプトスタイルガイド</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>〇
-〇
-〇
-〇
-〇</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">サブシステムインタフェース設計書
-(外部インタフェース設計書のフォーマットを使用)
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－
-○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○
-○
-○
-○
-○
-○
-×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「2. WBS」シートの「F列」が実態と乖離していたため修正。</t>
-    <rPh sb="17" eb="19">
-      <t>ジッタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュツ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -6863,7 +6902,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="J23" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,7 +6916,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="100">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43896</v>
+        <v>44455</v>
       </c>
       <c r="J25" s="100"/>
       <c r="K25" s="100"/>
@@ -7480,7 +7519,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -7502,7 +7541,7 @@
       <c r="Q1" s="117"/>
       <c r="R1" s="118"/>
       <c r="S1" s="125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T1" s="126"/>
       <c r="U1" s="126"/>
@@ -7512,7 +7551,7 @@
       <c r="Y1" s="126"/>
       <c r="Z1" s="127"/>
       <c r="AA1" s="107" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="109"/>
       <c r="AC1" s="134" t="str">
@@ -7536,7 +7575,7 @@
     </row>
     <row r="2" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -7564,7 +7603,7 @@
       <c r="Y2" s="129"/>
       <c r="Z2" s="130"/>
       <c r="AA2" s="107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="109"/>
       <c r="AC2" s="113" t="str">
@@ -7576,7 +7615,7 @@
       <c r="AF2" s="115"/>
       <c r="AG2" s="101">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43896</v>
+        <v>44455</v>
       </c>
       <c r="AH2" s="102"/>
       <c r="AI2" s="103"/>
@@ -7588,7 +7627,7 @@
     </row>
     <row r="3" spans="1:40" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -7658,7 +7697,7 @@
     </row>
     <row r="7" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="104" t="s">
         <v>186</v>
@@ -7675,7 +7714,7 @@
       <c r="H7" s="106"/>
       <c r="I7" s="105"/>
       <c r="J7" s="104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K7" s="106"/>
       <c r="L7" s="106"/>
@@ -7712,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="149" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="150"/>
       <c r="D8" s="151">
@@ -7721,12 +7760,12 @@
       <c r="E8" s="152"/>
       <c r="F8" s="153"/>
       <c r="G8" s="154" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H8" s="155"/>
       <c r="I8" s="156"/>
       <c r="J8" s="157" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K8" s="158"/>
       <c r="L8" s="158"/>
@@ -7735,7 +7774,7 @@
       <c r="O8" s="158"/>
       <c r="P8" s="159"/>
       <c r="Q8" s="160" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R8" s="161"/>
       <c r="S8" s="161"/>
@@ -7752,15 +7791,19 @@
       <c r="AD8" s="161"/>
       <c r="AE8" s="162"/>
       <c r="AF8" s="157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG8" s="158"/>
       <c r="AH8" s="158"/>
       <c r="AI8" s="159"/>
     </row>
     <row r="9" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="34">
+        <v>2</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>357</v>
+      </c>
       <c r="C9" s="138"/>
       <c r="D9" s="139">
         <v>43896</v>
@@ -7768,12 +7811,12 @@
       <c r="E9" s="140"/>
       <c r="F9" s="141"/>
       <c r="G9" s="139" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" s="142"/>
       <c r="I9" s="138"/>
       <c r="J9" s="143" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K9" s="144"/>
       <c r="L9" s="144"/>
@@ -7782,7 +7825,7 @@
       <c r="O9" s="144"/>
       <c r="P9" s="145"/>
       <c r="Q9" s="146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R9" s="147"/>
       <c r="S9" s="147"/>
@@ -7799,30 +7842,42 @@
       <c r="AD9" s="147"/>
       <c r="AE9" s="148"/>
       <c r="AF9" s="143" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG9" s="144"/>
       <c r="AH9" s="144"/>
       <c r="AI9" s="145"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="137"/>
+    <row r="10" spans="1:40" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>3</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>358</v>
+      </c>
       <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
+      <c r="D10" s="139">
+        <v>44455</v>
+      </c>
       <c r="E10" s="140"/>
       <c r="F10" s="141"/>
-      <c r="G10" s="137"/>
+      <c r="G10" s="139" t="s">
+        <v>339</v>
+      </c>
       <c r="H10" s="142"/>
       <c r="I10" s="138"/>
-      <c r="J10" s="143"/>
+      <c r="J10" s="143" t="s">
+        <v>340</v>
+      </c>
       <c r="K10" s="144"/>
       <c r="L10" s="144"/>
       <c r="M10" s="144"/>
       <c r="N10" s="144"/>
       <c r="O10" s="144"/>
       <c r="P10" s="145"/>
-      <c r="Q10" s="146"/>
+      <c r="Q10" s="146" t="s">
+        <v>359</v>
+      </c>
       <c r="R10" s="147"/>
       <c r="S10" s="147"/>
       <c r="T10" s="147"/>
@@ -7837,7 +7892,9 @@
       <c r="AC10" s="147"/>
       <c r="AD10" s="147"/>
       <c r="AE10" s="148"/>
-      <c r="AF10" s="143"/>
+      <c r="AF10" s="143" t="s">
+        <v>292</v>
+      </c>
       <c r="AG10" s="144"/>
       <c r="AH10" s="144"/>
       <c r="AI10" s="145"/>
@@ -9034,7 +9091,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -9070,7 +9127,7 @@
       <c r="Y1" s="126"/>
       <c r="Z1" s="127"/>
       <c r="AA1" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="168"/>
       <c r="AC1" s="134" t="str">
@@ -9092,7 +9149,7 @@
     </row>
     <row r="2" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -9123,7 +9180,7 @@
       <c r="Y2" s="129"/>
       <c r="Z2" s="130"/>
       <c r="AA2" s="167" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="168"/>
       <c r="AC2" s="134" t="str">
@@ -9135,7 +9192,7 @@
       <c r="AF2" s="136"/>
       <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43896</v>
+        <v>44455</v>
       </c>
       <c r="AH2" s="165"/>
       <c r="AI2" s="166"/>
@@ -9145,7 +9202,7 @@
     </row>
     <row r="3" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -9249,7 +9306,7 @@
       <c r="O5" s="37"/>
       <c r="P5" s="37"/>
       <c r="Q5" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
@@ -9310,7 +9367,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="41"/>
       <c r="B7" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -9350,7 +9407,7 @@
       <c r="A8" s="41"/>
       <c r="B8" s="37"/>
       <c r="C8" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -9389,7 +9446,7 @@
       <c r="A9" s="41"/>
       <c r="B9" s="37"/>
       <c r="C9" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -9427,7 +9484,7 @@
       <c r="A10" s="41"/>
       <c r="B10" s="37"/>
       <c r="C10" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -9500,7 +9557,7 @@
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="41"/>
       <c r="B12" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -10712,7 +10769,7 @@
   <sheetData>
     <row r="1" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -10731,7 +10788,7 @@
       <c r="M1" s="111"/>
       <c r="N1" s="112"/>
       <c r="O1" s="170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P1" s="171"/>
       <c r="Q1" s="171"/>
@@ -10778,7 +10835,7 @@
     </row>
     <row r="2" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="108"/>
       <c r="C2" s="108"/>
@@ -10821,7 +10878,7 @@
       <c r="AF2" s="136"/>
       <c r="AG2" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43896</v>
+        <v>44455</v>
       </c>
       <c r="AH2" s="165"/>
       <c r="AI2" s="166"/>
@@ -10839,7 +10896,7 @@
     </row>
     <row r="3" spans="1:50" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -10954,7 +11011,7 @@
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -11007,7 +11064,7 @@
     </row>
     <row r="6" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11016,7 +11073,7 @@
     <row r="8" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="42"/>
       <c r="D8" s="85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11034,7 +11091,7 @@
     <row r="11" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="42"/>
       <c r="D11" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11053,7 +11110,7 @@
     </row>
     <row r="15" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11062,7 +11119,7 @@
     <row r="17" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="42"/>
       <c r="D17" s="84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11185,7 +11242,7 @@
     </row>
     <row r="50" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="3:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11228,7 +11285,7 @@
     <row r="58" spans="3:28" x14ac:dyDescent="0.15">
       <c r="C58" s="42"/>
       <c r="D58" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E58" s="179" t="s">
         <v>107</v>
@@ -11443,7 +11500,7 @@
       <c r="I64" s="169"/>
       <c r="J64" s="169"/>
       <c r="K64" s="169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L64" s="169"/>
       <c r="M64" s="169"/>
@@ -11723,10 +11780,10 @@
       </c>
       <c r="G3" s="91"/>
       <c r="H3" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J3" s="92" t="s">
         <v>115</v>
@@ -11782,17 +11839,17 @@
         <v>129</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G5" s="91"/>
       <c r="H5" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I5" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J5" s="92" t="s">
         <v>115</v>
@@ -11815,17 +11872,17 @@
         <v>158</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F6" s="93" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J6" s="92" t="s">
         <v>126</v>
@@ -11837,13 +11894,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="97" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E7" s="89" t="s">
         <v>82</v>
@@ -11893,10 +11950,10 @@
         <v>113</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K8" s="91" t="s">
         <v>6</v>
@@ -11907,13 +11964,13 @@
         <v>31</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E9" s="89" t="s">
         <v>73</v>
@@ -11928,13 +11985,13 @@
         <v>113</v>
       </c>
       <c r="I9" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J9" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K9" s="91" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -11951,10 +12008,10 @@
         <v>161</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G10" s="89" t="s">
         <v>51</v>
@@ -11963,13 +12020,13 @@
         <v>114</v>
       </c>
       <c r="I10" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K10" s="91" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="337.5" x14ac:dyDescent="0.15">
@@ -11986,23 +12043,23 @@
         <v>165</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="92" t="s">
         <v>112</v>
       </c>
       <c r="I11" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J11" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K11" s="91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12019,23 +12076,23 @@
         <v>165</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="92" t="s">
         <v>112</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.15">
@@ -12046,23 +12103,23 @@
         <v>128</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F13" s="93" t="s">
         <v>268</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J13" s="92" t="s">
         <v>116</v>
@@ -12080,7 +12137,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" s="91" t="s">
         <v>74</v>
@@ -12090,10 +12147,10 @@
       </c>
       <c r="G14" s="91"/>
       <c r="H14" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I14" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J14" s="92" t="s">
         <v>118</v>
@@ -12117,14 +12174,14 @@
         <v>7</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G15" s="91"/>
       <c r="H15" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I15" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J15" s="92" t="s">
         <v>115</v>
@@ -12141,23 +12198,23 @@
         <v>150</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E16" s="91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G16" s="91"/>
       <c r="H16" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J16" s="92" t="s">
         <v>126</v>
@@ -12175,20 +12232,20 @@
         <v>78</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E17" s="91" t="s">
         <v>250</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I17" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J17" s="92" t="s">
         <v>116</v>
@@ -12202,26 +12259,26 @@
         <v>32</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C18" s="97" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E18" s="91" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J18" s="92" t="s">
         <v>119</v>
@@ -12235,26 +12292,26 @@
         <v>32</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C19" s="97" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E19" s="91" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J19" s="92" t="s">
         <v>119</v>
@@ -12280,14 +12337,14 @@
         <v>252</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J20" s="92" t="s">
         <v>116</v>
@@ -12317,10 +12374,10 @@
         <v>141</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I21" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J21" s="92" t="s">
         <v>115</v>
@@ -12338,7 +12395,7 @@
         <v>176</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E22" s="91" t="s">
         <v>191</v>
@@ -12353,10 +12410,10 @@
         <v>113</v>
       </c>
       <c r="I22" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J22" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K22" s="91" t="s">
         <v>177</v>
@@ -12385,13 +12442,13 @@
         <v>55</v>
       </c>
       <c r="H23" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I23" s="94" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K23" s="89" t="s">
         <v>144</v>
@@ -12420,10 +12477,10 @@
         <v>59</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I24" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J24" s="92" t="s">
         <v>117</v>
@@ -12455,10 +12512,10 @@
         <v>62</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J25" s="92" t="s">
         <v>130</v>
@@ -12478,7 +12535,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>29</v>
@@ -12490,10 +12547,10 @@
         <v>122</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J26" s="92" t="s">
         <v>121</v>
@@ -12519,16 +12576,16 @@
         <v>274</v>
       </c>
       <c r="F27" s="96" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G27" s="89" t="s">
         <v>278</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J27" s="92" t="s">
         <v>123</v>
@@ -12546,22 +12603,22 @@
         <v>83</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E28" s="91" t="s">
         <v>273</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G28" s="89" t="s">
         <v>277</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J28" s="92" t="s">
         <v>113</v>
@@ -12581,22 +12638,22 @@
         <v>85</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E29" s="91" t="s">
         <v>275</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G29" s="89" t="s">
         <v>276</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J29" s="92" t="s">
         <v>123</v>
@@ -12614,22 +12671,22 @@
         <v>84</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E30" s="91" t="s">
         <v>227</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G30" s="89" t="s">
         <v>229</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J30" s="92" t="s">
         <v>123</v>
@@ -12657,10 +12714,10 @@
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J31" s="92" t="s">
         <v>115</v>
@@ -12678,7 +12735,7 @@
         <v>91</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E32" s="91" t="s">
         <v>136</v>
@@ -12688,10 +12745,10 @@
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I32" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J32" s="92" t="s">
         <v>116</v>
@@ -12715,7 +12772,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="96" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G33" s="89" t="s">
         <v>138</v>
@@ -12724,10 +12781,10 @@
         <v>113</v>
       </c>
       <c r="I33" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K33" s="91" t="s">
         <v>262</v>
@@ -12757,10 +12814,10 @@
         <v>113</v>
       </c>
       <c r="I34" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J34" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K34" s="89" t="s">
         <v>263</v>
@@ -12787,10 +12844,10 @@
       </c>
       <c r="G35" s="89"/>
       <c r="H35" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I35" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J35" s="92" t="s">
         <v>127</v>
@@ -12818,10 +12875,10 @@
       </c>
       <c r="G36" s="91"/>
       <c r="H36" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I36" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J36" s="92" t="s">
         <v>116</v>
@@ -12833,13 +12890,13 @@
         <v>111</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C37" s="97" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E37" s="91" t="s">
         <v>234</v>
@@ -12849,10 +12906,10 @@
       </c>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I37" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J37" s="92" t="s">
         <v>112</v>
@@ -12876,7 +12933,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G38" s="89" t="s">
         <v>138</v>
@@ -12885,10 +12942,10 @@
         <v>113</v>
       </c>
       <c r="I38" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J38" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K38" s="91" t="s">
         <v>14</v>
@@ -12918,10 +12975,10 @@
         <v>113</v>
       </c>
       <c r="I39" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J39" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K39" s="89" t="s">
         <v>260</v>
@@ -12948,10 +13005,10 @@
       </c>
       <c r="G40" s="91"/>
       <c r="H40" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I40" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J40" s="92" t="s">
         <v>115</v>
@@ -12975,7 +13032,7 @@
         <v>13</v>
       </c>
       <c r="F41" s="96" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G41" s="89" t="s">
         <v>138</v>
@@ -12984,10 +13041,10 @@
         <v>130</v>
       </c>
       <c r="I41" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J41" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K41" s="91" t="s">
         <v>15</v>
@@ -13017,10 +13074,10 @@
         <v>126</v>
       </c>
       <c r="I42" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K42" s="89" t="s">
         <v>259</v>
@@ -13047,13 +13104,13 @@
       </c>
       <c r="G43" s="89"/>
       <c r="H43" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I43" s="92" t="s">
         <v>120</v>
       </c>
       <c r="J43" s="92" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K43" s="91" t="s">
         <v>159</v>
@@ -13080,13 +13137,13 @@
       </c>
       <c r="G44" s="89"/>
       <c r="H44" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I44" s="94" t="s">
         <v>119</v>
       </c>
       <c r="J44" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K44" s="89" t="s">
         <v>149</v>
@@ -13103,7 +13160,7 @@
         <v>88</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E45" s="89" t="s">
         <v>244</v>
@@ -13119,7 +13176,7 @@
         <v>53</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K45" s="89" t="s">
         <v>246</v>
@@ -13154,7 +13211,7 @@
         <v>113</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K46" s="89" t="s">
         <v>181</v>
@@ -13187,7 +13244,7 @@
         <v>119</v>
       </c>
       <c r="J47" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K47" s="89" t="s">
         <v>180</v>
@@ -13220,7 +13277,7 @@
         <v>113</v>
       </c>
       <c r="J48" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K48" s="89" t="s">
         <v>179</v>
@@ -13253,7 +13310,7 @@
         <v>119</v>
       </c>
       <c r="J49" s="94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K49" s="89" t="s">
         <v>179</v>
